--- a/raw_data/20200818_saline/20200818_Sensor2_Test_42.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_42.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D41245-4270-4219-93F6-CEC46963F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>37272.149400</v>
+        <v>37272.149400000002</v>
       </c>
       <c r="B2" s="1">
         <v>10.353375</v>
       </c>
       <c r="C2" s="1">
-        <v>1252.880000</v>
+        <v>1252.8800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-281.460000</v>
+        <v>-281.45999999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>37282.508346</v>
+        <v>37282.508346000002</v>
       </c>
       <c r="G2" s="1">
         <v>10.356252</v>
       </c>
       <c r="H2" s="1">
-        <v>1274.570000</v>
+        <v>1274.57</v>
       </c>
       <c r="I2" s="1">
-        <v>-245.498000</v>
+        <v>-245.49799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>37293.268591</v>
       </c>
       <c r="L2" s="1">
-        <v>10.359241</v>
+        <v>10.359241000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.070000</v>
+        <v>1307.07</v>
       </c>
       <c r="N2" s="1">
-        <v>-193.766000</v>
+        <v>-193.76599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>37303.750049</v>
+        <v>37303.750049000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>10.362153</v>
+        <v>10.362152999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1319.970000</v>
+        <v>1319.97</v>
       </c>
       <c r="S2" s="1">
-        <v>-179.160000</v>
+        <v>-179.16</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>37314.314800</v>
+        <v>37314.3148</v>
       </c>
       <c r="V2" s="1">
-        <v>10.365087</v>
+        <v>10.365087000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1334.350000</v>
+        <v>1334.35</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.552000</v>
+        <v>-168.55199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>37324.757571</v>
+        <v>37324.757571000002</v>
       </c>
       <c r="AA2" s="1">
         <v>10.367988</v>
       </c>
       <c r="AB2" s="1">
-        <v>1353.260000</v>
+        <v>1353.26</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.138000</v>
+        <v>-168.13800000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>37335.344675</v>
@@ -571,255 +987,255 @@
         <v>10.370929</v>
       </c>
       <c r="AG2" s="1">
-        <v>1367.110000</v>
+        <v>1367.11</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.683000</v>
+        <v>-178.68299999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>37346.080622</v>
+        <v>37346.080622000001</v>
       </c>
       <c r="AK2" s="1">
         <v>10.373911</v>
       </c>
       <c r="AL2" s="1">
-        <v>1388.530000</v>
+        <v>1388.53</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.953000</v>
+        <v>-208.953</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>37356.424185</v>
+        <v>37356.424185000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>10.376784</v>
+        <v>10.376784000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.983000</v>
+        <v>-252.983</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>37367.100537</v>
+        <v>37367.100536999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>10.379750</v>
+        <v>10.37975</v>
       </c>
       <c r="AV2" s="1">
-        <v>1435.200000</v>
+        <v>1435.2</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.117000</v>
+        <v>-313.11700000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>37377.459980</v>
+        <v>37377.45998</v>
       </c>
       <c r="AZ2" s="1">
         <v>10.382628</v>
       </c>
       <c r="BA2" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.343000</v>
+        <v>-365.34300000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>37388.123507</v>
+        <v>37388.123506999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>10.385590</v>
+        <v>10.385590000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.660000</v>
+        <v>-614.66</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>37398.842017</v>
+        <v>37398.842017000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>10.388567</v>
       </c>
       <c r="BK2" s="1">
-        <v>1692.850000</v>
+        <v>1692.85</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1062.510000</v>
+        <v>-1062.51</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>37409.917681</v>
+        <v>37409.917680999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.391644</v>
+        <v>10.391643999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1985.730000</v>
+        <v>1985.73</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1840.080000</v>
+        <v>-1840.08</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>37420.265715</v>
+        <v>37420.265715000001</v>
       </c>
       <c r="BT2" s="1">
         <v>10.394518</v>
       </c>
       <c r="BU2" s="1">
-        <v>2368.730000</v>
+        <v>2368.73</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2740.070000</v>
+        <v>-2740.07</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>37431.149926</v>
+        <v>37431.149925999998</v>
       </c>
       <c r="BY2" s="1">
         <v>10.397542</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2852.880000</v>
+        <v>2852.88</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3726.330000</v>
+        <v>-3726.33</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>37442.047067</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.400569</v>
+        <v>10.400569000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4285.350000</v>
+        <v>4285.3500000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6113.130000</v>
+        <v>-6113.13</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>37272.834408</v>
+        <v>37272.834408000002</v>
       </c>
       <c r="B3" s="1">
         <v>10.353565</v>
       </c>
       <c r="C3" s="1">
-        <v>1252.560000</v>
+        <v>1252.56</v>
       </c>
       <c r="D3" s="1">
-        <v>-280.883000</v>
+        <v>-280.88299999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>37283.235481</v>
+        <v>37283.235481000003</v>
       </c>
       <c r="G3" s="1">
-        <v>10.356454</v>
+        <v>10.356453999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1273.170000</v>
+        <v>1273.17</v>
       </c>
       <c r="I3" s="1">
-        <v>-245.446000</v>
+        <v>-245.446</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>37293.615258</v>
+        <v>37293.615257999998</v>
       </c>
       <c r="L3" s="1">
-        <v>10.359338</v>
+        <v>10.359337999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1307.330000</v>
+        <v>1307.33</v>
       </c>
       <c r="N3" s="1">
-        <v>-193.567000</v>
+        <v>-193.56700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>37304.122047</v>
+        <v>37304.122046999997</v>
       </c>
       <c r="Q3" s="1">
         <v>10.362256</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S3" s="1">
-        <v>-179.276000</v>
+        <v>-179.27600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>37314.683824</v>
       </c>
       <c r="V3" s="1">
-        <v>10.365190</v>
+        <v>10.36519</v>
       </c>
       <c r="W3" s="1">
-        <v>1334.300000</v>
+        <v>1334.3</v>
       </c>
       <c r="X3" s="1">
-        <v>-168.482000</v>
+        <v>-168.482</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>37325.445521</v>
+        <v>37325.445521000001</v>
       </c>
       <c r="AA3" s="1">
         <v>10.368179</v>
       </c>
       <c r="AB3" s="1">
-        <v>1353.530000</v>
+        <v>1353.53</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.485000</v>
+        <v>-168.48500000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>37336.027208</v>
@@ -828,118 +1244,118 @@
         <v>10.371119</v>
       </c>
       <c r="AG3" s="1">
-        <v>1367.100000</v>
+        <v>1367.1</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.695000</v>
+        <v>-178.69499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>37346.497258</v>
+        <v>37346.497258000003</v>
       </c>
       <c r="AK3" s="1">
         <v>10.374027</v>
       </c>
       <c r="AL3" s="1">
-        <v>1388.500000</v>
+        <v>1388.5</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.985000</v>
+        <v>-208.98500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>37356.788712</v>
+        <v>37356.788712000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.376886</v>
+        <v>10.376886000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.957000</v>
+        <v>-252.95699999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>37367.471546</v>
+        <v>37367.471546000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.379853</v>
+        <v>10.379853000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1435.180000</v>
+        <v>1435.18</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.110000</v>
+        <v>-313.11</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>37377.843884</v>
+        <v>37377.843884000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.382734</v>
+        <v>10.382733999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.372000</v>
+        <v>-365.37200000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>37388.515841</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.385699</v>
+        <v>10.385699000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.689000</v>
+        <v>-614.68899999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>37399.264639</v>
+        <v>37399.264639000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.388685</v>
+        <v>10.388685000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1692.760000</v>
+        <v>1692.76</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1062.560000</v>
+        <v>-1062.56</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>37410.052096</v>
+        <v>37410.052095999999</v>
       </c>
       <c r="BO3" s="1">
         <v>10.391681</v>
       </c>
       <c r="BP3" s="1">
-        <v>1985.390000</v>
+        <v>1985.39</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1840.240000</v>
+        <v>-1840.24</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>37420.458198</v>
@@ -948,90 +1364,90 @@
         <v>10.394572</v>
       </c>
       <c r="BU3" s="1">
-        <v>2368.600000</v>
+        <v>2368.6</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2740.030000</v>
+        <v>-2740.03</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>37431.644935</v>
+        <v>37431.644934999997</v>
       </c>
       <c r="BY3" s="1">
         <v>10.397679</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2852.780000</v>
+        <v>2852.78</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3725.670000</v>
+        <v>-3725.67</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>37442.640279</v>
+        <v>37442.640278999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.400733</v>
+        <v>10.400733000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4266.950000</v>
+        <v>4266.95</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6104.520000</v>
+        <v>-6104.52</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>37273.177901</v>
+        <v>37273.177901000003</v>
       </c>
       <c r="B4" s="1">
-        <v>10.353661</v>
+        <v>10.353661000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1252.670000</v>
+        <v>1252.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-281.396000</v>
+        <v>-281.39600000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>37283.578713</v>
+        <v>37283.578713000003</v>
       </c>
       <c r="G4" s="1">
-        <v>10.356550</v>
+        <v>10.35655</v>
       </c>
       <c r="H4" s="1">
-        <v>1273.880000</v>
+        <v>1273.8800000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-245.696000</v>
+        <v>-245.696</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>37293.961999</v>
+        <v>37293.961998999999</v>
       </c>
       <c r="L4" s="1">
         <v>10.359434</v>
       </c>
       <c r="M4" s="1">
-        <v>1307.510000</v>
+        <v>1307.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-193.845000</v>
+        <v>-193.845</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>37304.787675</v>
@@ -1040,28 +1456,28 @@
         <v>10.362441</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.830000</v>
+        <v>1319.83</v>
       </c>
       <c r="S4" s="1">
-        <v>-179.227000</v>
+        <v>-179.227</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>37315.345487</v>
+        <v>37315.345486999999</v>
       </c>
       <c r="V4" s="1">
-        <v>10.365374</v>
+        <v>10.365373999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1334.280000</v>
+        <v>1334.28</v>
       </c>
       <c r="X4" s="1">
-        <v>-168.415000</v>
+        <v>-168.41499999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>37325.832896</v>
@@ -1070,315 +1486,315 @@
         <v>10.368287</v>
       </c>
       <c r="AB4" s="1">
-        <v>1353.270000</v>
+        <v>1353.27</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.347000</v>
+        <v>-168.34700000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>37336.475554</v>
+        <v>37336.475553999997</v>
       </c>
       <c r="AF4" s="1">
         <v>10.371243</v>
       </c>
       <c r="AG4" s="1">
-        <v>1367.140000</v>
+        <v>1367.14</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.725000</v>
+        <v>-178.72499999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>37346.844917</v>
+        <v>37346.844917000002</v>
       </c>
       <c r="AK4" s="1">
         <v>10.374124</v>
       </c>
       <c r="AL4" s="1">
-        <v>1388.510000</v>
+        <v>1388.51</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.993000</v>
+        <v>-208.99299999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>37357.148343</v>
+        <v>37357.148343000001</v>
       </c>
       <c r="AP4" s="1">
         <v>10.376986</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.990000</v>
+        <v>-252.99</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>37367.835608</v>
+        <v>37367.835608000001</v>
       </c>
       <c r="AU4" s="1">
         <v>10.379954</v>
       </c>
       <c r="AV4" s="1">
-        <v>1435.220000</v>
+        <v>1435.22</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.121000</v>
+        <v>-313.12099999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>37378.257546</v>
+        <v>37378.257546000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>10.382849</v>
       </c>
       <c r="BA4" s="1">
-        <v>1454.510000</v>
+        <v>1454.51</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.362000</v>
+        <v>-365.36200000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>37388.997459</v>
+        <v>37388.997458999998</v>
       </c>
       <c r="BE4" s="1">
         <v>10.385833</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.420000</v>
+        <v>1539.42</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.677000</v>
+        <v>-614.67700000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>37399.608862</v>
+        <v>37399.608862000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.388780</v>
+        <v>10.388780000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1692.780000</v>
+        <v>1692.78</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1062.520000</v>
+        <v>-1062.52</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>37410.461297</v>
+        <v>37410.461297000002</v>
       </c>
       <c r="BO4" s="1">
         <v>10.391795</v>
       </c>
       <c r="BP4" s="1">
-        <v>1985.540000</v>
+        <v>1985.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1840.150000</v>
+        <v>-1840.15</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>37420.889218</v>
+        <v>37420.889217999997</v>
       </c>
       <c r="BT4" s="1">
         <v>10.394691</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.280000</v>
+        <v>2368.2800000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2739.580000</v>
+        <v>-2739.58</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>37432.077443</v>
+        <v>37432.077443000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.397799</v>
+        <v>10.397798999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2852.790000</v>
+        <v>2852.79</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3726.310000</v>
+        <v>-3726.31</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>37443.177444</v>
+        <v>37443.177444000001</v>
       </c>
       <c r="CD4" s="1">
         <v>10.400883</v>
       </c>
       <c r="CE4" s="1">
-        <v>4269.740000</v>
+        <v>4269.74</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6122.920000</v>
+        <v>-6122.92</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>37273.516869</v>
+        <v>37273.516868999999</v>
       </c>
       <c r="B5" s="1">
         <v>10.353755</v>
       </c>
       <c r="C5" s="1">
-        <v>1252.710000</v>
+        <v>1252.71</v>
       </c>
       <c r="D5" s="1">
-        <v>-281.665000</v>
+        <v>-281.66500000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>37283.924921</v>
+        <v>37283.924920999998</v>
       </c>
       <c r="G5" s="1">
         <v>10.356646</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.570000</v>
+        <v>1273.57</v>
       </c>
       <c r="I5" s="1">
-        <v>-246.187000</v>
+        <v>-246.18700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>37294.612219</v>
+        <v>37294.612219000002</v>
       </c>
       <c r="L5" s="1">
         <v>10.359615</v>
       </c>
       <c r="M5" s="1">
-        <v>1307.140000</v>
+        <v>1307.1400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-194.087000</v>
+        <v>-194.08699999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>37305.165100</v>
+        <v>37305.165099999998</v>
       </c>
       <c r="Q5" s="1">
         <v>10.362546</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.830000</v>
+        <v>1319.83</v>
       </c>
       <c r="S5" s="1">
-        <v>-179.108000</v>
+        <v>-179.108</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>37315.712061</v>
+        <v>37315.712060999998</v>
       </c>
       <c r="V5" s="1">
-        <v>10.365476</v>
+        <v>10.365475999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1334.420000</v>
+        <v>1334.42</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.473000</v>
+        <v>-168.47300000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>37326.184063</v>
+        <v>37326.184063000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.368384</v>
+        <v>10.368384000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1353.390000</v>
+        <v>1353.39</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.246000</v>
+        <v>-168.24600000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>37336.757777</v>
+        <v>37336.757776999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.371322</v>
+        <v>10.371321999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1367.120000</v>
+        <v>1367.12</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.675000</v>
+        <v>-178.67500000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>37347.192644</v>
+        <v>37347.192644000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.374220</v>
+        <v>10.374219999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1388.530000</v>
+        <v>1388.53</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.017000</v>
+        <v>-209.017</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>37357.581814</v>
+        <v>37357.581813999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.377106</v>
+        <v>10.377105999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1410.470000</v>
+        <v>1410.47</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.974000</v>
+        <v>-252.97399999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>37368.258232</v>
@@ -1387,165 +1803,165 @@
         <v>10.380072</v>
       </c>
       <c r="AV5" s="1">
-        <v>1435.190000</v>
+        <v>1435.19</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.105000</v>
+        <v>-313.10500000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>37378.561594</v>
+        <v>37378.561593999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.382934</v>
+        <v>10.382934000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1454.540000</v>
+        <v>1454.54</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.362000</v>
+        <v>-365.36200000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>37389.240461</v>
+        <v>37389.240461000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.385900</v>
+        <v>10.385899999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.661000</v>
+        <v>-614.66099999999994</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>37399.987774</v>
+        <v>37399.987774000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.388885</v>
       </c>
       <c r="BK5" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1062.610000</v>
+        <v>-1062.6099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>37410.859120</v>
+        <v>37410.859120000001</v>
       </c>
       <c r="BO5" s="1">
         <v>10.391905</v>
       </c>
       <c r="BP5" s="1">
-        <v>1985.490000</v>
+        <v>1985.49</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1840.480000</v>
+        <v>-1840.48</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>37421.301894</v>
+        <v>37421.301893999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.394806</v>
+        <v>10.394806000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.020000</v>
+        <v>2369.02</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2739.190000</v>
+        <v>-2739.19</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>37432.497556</v>
+        <v>37432.497556000002</v>
       </c>
       <c r="BY5" s="1">
         <v>10.397916</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.360000</v>
+        <v>2853.36</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3725.570000</v>
+        <v>-3725.57</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>37443.719540</v>
+        <v>37443.719539999998</v>
       </c>
       <c r="CD5" s="1">
         <v>10.401033</v>
       </c>
       <c r="CE5" s="1">
-        <v>4280.270000</v>
+        <v>4280.2700000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6101.400000</v>
+        <v>-6101.4</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>37274.169110</v>
+        <v>37274.169110000003</v>
       </c>
       <c r="B6" s="1">
-        <v>10.353936</v>
+        <v>10.353935999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-281.299000</v>
+        <v>-281.29899999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>37284.787990</v>
+        <v>37284.787989999997</v>
       </c>
       <c r="G6" s="1">
-        <v>10.356886</v>
+        <v>10.356885999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.390000</v>
+        <v>1273.3900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-245.777000</v>
+        <v>-245.77699999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>37294.998600</v>
+        <v>37294.998599999999</v>
       </c>
       <c r="L6" s="1">
         <v>10.359722</v>
       </c>
       <c r="M6" s="1">
-        <v>1307.450000</v>
+        <v>1307.45</v>
       </c>
       <c r="N6" s="1">
-        <v>-193.828000</v>
+        <v>-193.828</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>37305.517259</v>
@@ -1554,13 +1970,13 @@
         <v>10.362644</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S6" s="1">
-        <v>-179.123000</v>
+        <v>-179.12299999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>37316.060717</v>
@@ -1569,133 +1985,133 @@
         <v>10.365572</v>
       </c>
       <c r="W6" s="1">
-        <v>1334.280000</v>
+        <v>1334.28</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.493000</v>
+        <v>-168.49299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>37326.531264</v>
+        <v>37326.531263999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.368481</v>
+        <v>10.368480999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1353.240000</v>
+        <v>1353.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.349000</v>
+        <v>-168.34899999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>37337.320241</v>
+        <v>37337.320241000001</v>
       </c>
       <c r="AF6" s="1">
         <v>10.371478</v>
       </c>
       <c r="AG6" s="1">
-        <v>1367.090000</v>
+        <v>1367.09</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.693000</v>
+        <v>-178.69300000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>37347.614213</v>
+        <v>37347.614213000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>10.374337</v>
+        <v>10.374337000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1388.510000</v>
+        <v>1388.51</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.010000</v>
+        <v>-209.01</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>37357.868039</v>
+        <v>37357.868039000001</v>
       </c>
       <c r="AP6" s="1">
         <v>10.377186</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.999000</v>
+        <v>-252.999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>37368.566216</v>
+        <v>37368.566215999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.380157</v>
+        <v>10.380157000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1435.210000</v>
+        <v>1435.21</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.142000</v>
+        <v>-313.142</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>37378.919209</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.383033</v>
+        <v>10.383032999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1454.530000</v>
+        <v>1454.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.370000</v>
+        <v>-365.37</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>37389.599069</v>
+        <v>37389.599069000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>10.386000</v>
+        <v>10.385999999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.410000</v>
+        <v>1539.41</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.681000</v>
+        <v>-614.68100000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>37400.362751</v>
+        <v>37400.362751000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.388990</v>
+        <v>10.38899</v>
       </c>
       <c r="BK6" s="1">
-        <v>1692.740000</v>
+        <v>1692.74</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1062.500000</v>
+        <v>-1062.5</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>37411.282175</v>
@@ -1704,407 +2120,407 @@
         <v>10.392023</v>
       </c>
       <c r="BP6" s="1">
-        <v>1985.370000</v>
+        <v>1985.37</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1840.270000</v>
+        <v>-1840.27</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>37421.735361</v>
+        <v>37421.735360999999</v>
       </c>
       <c r="BT6" s="1">
         <v>10.394926</v>
       </c>
       <c r="BU6" s="1">
-        <v>2368.710000</v>
+        <v>2368.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2739.020000</v>
+        <v>-2739.02</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>37432.920675</v>
+        <v>37432.920675000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.398034</v>
+        <v>10.398034000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.070000</v>
+        <v>2853.07</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3725.800000</v>
+        <v>-3725.8</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>37444.258692</v>
+        <v>37444.258692000003</v>
       </c>
       <c r="CD6" s="1">
         <v>10.401183</v>
       </c>
       <c r="CE6" s="1">
-        <v>4260.760000</v>
+        <v>4260.76</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6114.460000</v>
+        <v>-6114.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>37274.543127</v>
+        <v>37274.543126999997</v>
       </c>
       <c r="B7" s="1">
-        <v>10.354040</v>
+        <v>10.354039999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1253.070000</v>
+        <v>1253.07</v>
       </c>
       <c r="D7" s="1">
-        <v>-281.164000</v>
+        <v>-281.16399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>37284.955607</v>
+        <v>37284.955607000004</v>
       </c>
       <c r="G7" s="1">
         <v>10.356932</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.840000</v>
+        <v>1273.8399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-245.714000</v>
+        <v>-245.714</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>37295.345305</v>
+        <v>37295.345305000003</v>
       </c>
       <c r="L7" s="1">
-        <v>10.359818</v>
+        <v>10.359818000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1307.390000</v>
+        <v>1307.3900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-194.211000</v>
+        <v>-194.21100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>37305.863994</v>
+        <v>37305.863993999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.362740</v>
+        <v>10.362740000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.920000</v>
+        <v>1319.92</v>
       </c>
       <c r="S7" s="1">
-        <v>-179.059000</v>
+        <v>-179.059</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>37316.404444</v>
       </c>
       <c r="V7" s="1">
-        <v>10.365668</v>
+        <v>10.365667999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1334.300000</v>
+        <v>1334.3</v>
       </c>
       <c r="X7" s="1">
-        <v>-168.510000</v>
+        <v>-168.51</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>37326.960800</v>
+        <v>37326.960800000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.368600</v>
+        <v>10.368600000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1353.330000</v>
+        <v>1353.33</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.379000</v>
+        <v>-168.37899999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>37337.445728</v>
+        <v>37337.445727999999</v>
       </c>
       <c r="AF7" s="1">
         <v>10.371513</v>
       </c>
       <c r="AG7" s="1">
-        <v>1367.120000</v>
+        <v>1367.12</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.706000</v>
+        <v>-178.70599999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>37347.893986</v>
+        <v>37347.893986000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.374415</v>
+        <v>10.374415000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1388.520000</v>
+        <v>1388.52</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.996000</v>
+        <v>-208.99600000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>37358.225655</v>
+        <v>37358.225655000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.377285</v>
+        <v>10.377285000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.952000</v>
+        <v>-252.952</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>37368.927799</v>
+        <v>37368.927798999997</v>
       </c>
       <c r="AU7" s="1">
         <v>10.380258</v>
       </c>
       <c r="AV7" s="1">
-        <v>1435.210000</v>
+        <v>1435.21</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.076000</v>
+        <v>-313.07600000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>37379.275337</v>
+        <v>37379.275336999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>10.383132</v>
       </c>
       <c r="BA7" s="1">
-        <v>1454.480000</v>
+        <v>1454.48</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.348000</v>
+        <v>-365.34800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>37390.327194</v>
+        <v>37390.327193999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.386202</v>
+        <v>10.386202000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1539.400000</v>
+        <v>1539.4</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.649000</v>
+        <v>-614.649</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>37401.132077</v>
+        <v>37401.132077000002</v>
       </c>
       <c r="BJ7" s="1">
         <v>10.389203</v>
       </c>
       <c r="BK7" s="1">
-        <v>1692.750000</v>
+        <v>1692.75</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1062.540000</v>
+        <v>-1062.54</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>37411.679471</v>
+        <v>37411.679471000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.392133</v>
+        <v>10.392132999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1985.290000</v>
+        <v>1985.29</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1840.350000</v>
+        <v>-1840.35</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>37422.164897</v>
+        <v>37422.164897000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.395046</v>
+        <v>10.395046000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.990000</v>
+        <v>2368.9899999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2738.830000</v>
+        <v>-2738.83</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>37433.348691</v>
+        <v>37433.348690999999</v>
       </c>
       <c r="BY7" s="1">
         <v>10.398152</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2852.620000</v>
+        <v>2852.62</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3725.540000</v>
+        <v>-3725.54</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>37445.112572</v>
+        <v>37445.112571999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.401420</v>
+        <v>10.40142</v>
       </c>
       <c r="CE7" s="1">
-        <v>4273.800000</v>
+        <v>4273.8</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6101.040000</v>
+        <v>-6101.04</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>37274.883843</v>
+        <v>37274.883843000003</v>
       </c>
       <c r="B8" s="1">
         <v>10.354134</v>
       </c>
       <c r="C8" s="1">
-        <v>1252.490000</v>
+        <v>1252.49</v>
       </c>
       <c r="D8" s="1">
-        <v>-281.204000</v>
+        <v>-281.20400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>37285.299831</v>
+        <v>37285.299830999997</v>
       </c>
       <c r="G8" s="1">
         <v>10.357028</v>
       </c>
       <c r="H8" s="1">
-        <v>1274.110000</v>
+        <v>1274.1099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-245.920000</v>
+        <v>-245.92</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>37295.690056</v>
+        <v>37295.690055999999</v>
       </c>
       <c r="L8" s="1">
         <v>10.359914</v>
       </c>
       <c r="M8" s="1">
-        <v>1307.820000</v>
+        <v>1307.82</v>
       </c>
       <c r="N8" s="1">
-        <v>-194.073000</v>
+        <v>-194.07300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>37306.287086</v>
+        <v>37306.287085999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.362858</v>
+        <v>10.362857999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S8" s="1">
-        <v>-179.239000</v>
+        <v>-179.239</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>37316.825548</v>
+        <v>37316.825548000001</v>
       </c>
       <c r="V8" s="1">
-        <v>10.365785</v>
+        <v>10.365785000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1334.280000</v>
+        <v>1334.28</v>
       </c>
       <c r="X8" s="1">
-        <v>-168.537000</v>
+        <v>-168.53700000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>37327.241571</v>
+        <v>37327.241570999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.368678</v>
+        <v>10.368677999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1353.240000</v>
+        <v>1353.24</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.408000</v>
+        <v>-168.40799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>37337.787503</v>
@@ -2113,103 +2529,103 @@
         <v>10.371608</v>
       </c>
       <c r="AG8" s="1">
-        <v>1367.100000</v>
+        <v>1367.1</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.687000</v>
+        <v>-178.68700000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>37348.242674</v>
+        <v>37348.242674000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>10.374512</v>
+        <v>10.374511999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1388.520000</v>
+        <v>1388.52</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.979000</v>
+        <v>-208.97900000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>37358.591669</v>
+        <v>37358.591669000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>10.377387</v>
+        <v>10.377387000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.987000</v>
+        <v>-252.98699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>37369.295334</v>
+        <v>37369.295334000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.380360</v>
+        <v>10.38036</v>
       </c>
       <c r="AV8" s="1">
-        <v>1435.230000</v>
+        <v>1435.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.109000</v>
+        <v>-313.10899999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>37380.003006</v>
+        <v>37380.003005999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.383334</v>
       </c>
       <c r="BA8" s="1">
-        <v>1454.510000</v>
+        <v>1454.51</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.353000</v>
+        <v>-365.35300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>37390.705642</v>
+        <v>37390.705642000001</v>
       </c>
       <c r="BE8" s="1">
         <v>10.386307</v>
       </c>
       <c r="BF8" s="1">
-        <v>1539.410000</v>
+        <v>1539.41</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.662000</v>
+        <v>-614.66200000000003</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>37401.508535</v>
+        <v>37401.508535000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.389308</v>
       </c>
       <c r="BK8" s="1">
-        <v>1692.740000</v>
+        <v>1692.74</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1062.530000</v>
+        <v>-1062.53</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>37412.097598</v>
@@ -2218,13 +2634,13 @@
         <v>10.392249</v>
       </c>
       <c r="BP8" s="1">
-        <v>1985.200000</v>
+        <v>1985.2</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1840.360000</v>
+        <v>-1840.36</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>37422.570624</v>
@@ -2233,482 +2649,482 @@
         <v>10.395159</v>
       </c>
       <c r="BU8" s="1">
-        <v>2369.130000</v>
+        <v>2369.13</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2738.350000</v>
+        <v>-2738.35</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>37434.078305</v>
+        <v>37434.078305000003</v>
       </c>
       <c r="BY8" s="1">
         <v>10.398355</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.290000</v>
+        <v>2852.29</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3725.880000</v>
+        <v>-3725.88</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>37445.336038</v>
+        <v>37445.336038000001</v>
       </c>
       <c r="CD8" s="1">
         <v>10.401482</v>
       </c>
       <c r="CE8" s="1">
-        <v>4273.860000</v>
+        <v>4273.8599999999997</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6099.110000</v>
+        <v>-6099.11</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>37275.228066</v>
+        <v>37275.228066000003</v>
       </c>
       <c r="B9" s="1">
-        <v>10.354230</v>
+        <v>10.354229999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1252.580000</v>
+        <v>1252.58</v>
       </c>
       <c r="D9" s="1">
-        <v>-281.600000</v>
+        <v>-281.60000000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>37285.718485</v>
+        <v>37285.718484999998</v>
       </c>
       <c r="G9" s="1">
         <v>10.357144</v>
       </c>
       <c r="H9" s="1">
-        <v>1273.870000</v>
+        <v>1273.8699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-245.632000</v>
+        <v>-245.63200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>37296.110173</v>
+        <v>37296.110173000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.360031</v>
+        <v>10.360030999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1307.290000</v>
+        <v>1307.29</v>
       </c>
       <c r="N9" s="1">
-        <v>-194.086000</v>
+        <v>-194.08600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>37306.566298</v>
+        <v>37306.566297999998</v>
       </c>
       <c r="Q9" s="1">
         <v>10.362935</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.910000</v>
+        <v>1319.91</v>
       </c>
       <c r="S9" s="1">
-        <v>-179.259000</v>
+        <v>-179.25899999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>37317.101355</v>
+        <v>37317.101354999999</v>
       </c>
       <c r="V9" s="1">
-        <v>10.365861</v>
+        <v>10.365861000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1334.230000</v>
+        <v>1334.23</v>
       </c>
       <c r="X9" s="1">
-        <v>-168.433000</v>
+        <v>-168.43299999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>37327.589727</v>
+        <v>37327.589726999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.368775</v>
+        <v>10.368774999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1353.190000</v>
+        <v>1353.19</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.283000</v>
+        <v>-168.28299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>37338.132689</v>
+        <v>37338.132688999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.371704</v>
+        <v>10.371703999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>1367.110000</v>
+        <v>1367.11</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.703000</v>
+        <v>-178.703</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>37348.593811</v>
+        <v>37348.593810999999</v>
       </c>
       <c r="AK9" s="1">
         <v>10.374609</v>
       </c>
       <c r="AL9" s="1">
-        <v>1388.530000</v>
+        <v>1388.53</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.971000</v>
+        <v>-208.971</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>37359.312357</v>
+        <v>37359.312357000003</v>
       </c>
       <c r="AP9" s="1">
         <v>10.377587</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.983000</v>
+        <v>-252.983</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>37370.023463</v>
+        <v>37370.023462999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>10.380562</v>
+        <v>10.380561999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1435.210000</v>
+        <v>1435.21</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.097000</v>
+        <v>-313.09699999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>37380.378936</v>
+        <v>37380.378936000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.383439</v>
+        <v>10.383438999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1454.500000</v>
+        <v>1454.5</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.346000</v>
+        <v>-365.346</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>37391.085083</v>
+        <v>37391.085082999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.386413</v>
+        <v>10.386412999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1539.360000</v>
+        <v>1539.36</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.655000</v>
+        <v>-614.65499999999997</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>37401.882493</v>
+        <v>37401.882492999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>10.389412</v>
       </c>
       <c r="BK9" s="1">
-        <v>1692.700000</v>
+        <v>1692.7</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1062.540000</v>
+        <v>-1062.54</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>37412.808898</v>
+        <v>37412.808898000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.392447</v>
+        <v>10.392447000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1985.370000</v>
+        <v>1985.37</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1840.260000</v>
+        <v>-1840.26</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>37423.389064</v>
+        <v>37423.389064000003</v>
       </c>
       <c r="BT9" s="1">
         <v>10.395386</v>
       </c>
       <c r="BU9" s="1">
-        <v>2369.910000</v>
+        <v>2369.91</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2737.970000</v>
+        <v>-2737.97</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>37434.210738</v>
+        <v>37434.210738000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.398392</v>
+        <v>10.398391999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2852.810000</v>
+        <v>2852.81</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3725.640000</v>
+        <v>-3725.64</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>37445.856337</v>
+        <v>37445.856336999997</v>
       </c>
       <c r="CD9" s="1">
         <v>10.401627</v>
       </c>
       <c r="CE9" s="1">
-        <v>4258.970000</v>
+        <v>4258.97</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6109.780000</v>
+        <v>-6109.78</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>37275.652148</v>
+        <v>37275.652148000001</v>
       </c>
       <c r="B10" s="1">
         <v>10.354348</v>
       </c>
       <c r="C10" s="1">
-        <v>1252.410000</v>
+        <v>1252.4100000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-281.567000</v>
+        <v>-281.56700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>37285.992246</v>
+        <v>37285.992246000002</v>
       </c>
       <c r="G10" s="1">
-        <v>10.357220</v>
+        <v>10.35722</v>
       </c>
       <c r="H10" s="1">
-        <v>1274.470000</v>
+        <v>1274.47</v>
       </c>
       <c r="I10" s="1">
-        <v>-245.672000</v>
+        <v>-245.672</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>37296.397815</v>
+        <v>37296.397814999997</v>
       </c>
       <c r="L10" s="1">
         <v>10.360111</v>
       </c>
       <c r="M10" s="1">
-        <v>1306.990000</v>
+        <v>1306.99</v>
       </c>
       <c r="N10" s="1">
-        <v>-193.740000</v>
+        <v>-193.74</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>37306.915515</v>
+        <v>37306.915515000001</v>
       </c>
       <c r="Q10" s="1">
         <v>10.363032</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.860000</v>
+        <v>1319.86</v>
       </c>
       <c r="S10" s="1">
-        <v>-179.216000</v>
+        <v>-179.21600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>37317.445575</v>
+        <v>37317.445574999998</v>
       </c>
       <c r="V10" s="1">
         <v>10.365957</v>
       </c>
       <c r="W10" s="1">
-        <v>1334.340000</v>
+        <v>1334.34</v>
       </c>
       <c r="X10" s="1">
-        <v>-168.683000</v>
+        <v>-168.68299999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>37327.938910</v>
+        <v>37327.938909999997</v>
       </c>
       <c r="AA10" s="1">
         <v>10.368872</v>
       </c>
       <c r="AB10" s="1">
-        <v>1353.220000</v>
+        <v>1353.22</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.342000</v>
+        <v>-168.34200000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>37338.817203</v>
+        <v>37338.817202999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.371894</v>
+        <v>10.371893999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1367.060000</v>
+        <v>1367.06</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.740000</v>
+        <v>-178.74</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>37349.287723</v>
+        <v>37349.287723000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.374802</v>
+        <v>10.374802000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1388.490000</v>
+        <v>1388.49</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.949000</v>
+        <v>-208.94900000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>37359.699731</v>
+        <v>37359.699731000001</v>
       </c>
       <c r="AP10" s="1">
         <v>10.377694</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.987000</v>
+        <v>-252.98699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>37370.414807</v>
+        <v>37370.414807000001</v>
       </c>
       <c r="AU10" s="1">
         <v>10.380671</v>
       </c>
       <c r="AV10" s="1">
-        <v>1435.180000</v>
+        <v>1435.18</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.129000</v>
+        <v>-313.12900000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>37380.766312</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.383546</v>
+        <v>10.383546000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1454.510000</v>
+        <v>1454.51</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.339000</v>
+        <v>-365.339</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>37391.749724</v>
+        <v>37391.749724000001</v>
       </c>
       <c r="BE10" s="1">
         <v>10.386597</v>
       </c>
       <c r="BF10" s="1">
-        <v>1539.340000</v>
+        <v>1539.34</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.652000</v>
+        <v>-614.65200000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>37402.598714</v>
@@ -2717,255 +3133,255 @@
         <v>10.389611</v>
       </c>
       <c r="BK10" s="1">
-        <v>1692.690000</v>
+        <v>1692.69</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1062.550000</v>
+        <v>-1062.55</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>37412.930912</v>
+        <v>37412.930912000003</v>
       </c>
       <c r="BO10" s="1">
         <v>10.392481</v>
       </c>
       <c r="BP10" s="1">
-        <v>1985.190000</v>
+        <v>1985.19</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1840.380000</v>
+        <v>-1840.38</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>37423.868686</v>
+        <v>37423.868686000002</v>
       </c>
       <c r="BT10" s="1">
         <v>10.395519</v>
       </c>
       <c r="BU10" s="1">
-        <v>2370.080000</v>
+        <v>2370.08</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2737.810000</v>
+        <v>-2737.81</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>37434.632864</v>
+        <v>37434.632863999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.398509</v>
+        <v>10.398509000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2852.340000</v>
+        <v>2852.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3725.210000</v>
+        <v>-3725.21</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>37446.375652</v>
+        <v>37446.375652000002</v>
       </c>
       <c r="CD10" s="1">
         <v>10.401771</v>
       </c>
       <c r="CE10" s="1">
-        <v>4267.140000</v>
+        <v>4267.1400000000003</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6102.240000</v>
+        <v>-6102.24</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>37275.925939</v>
+        <v>37275.925939000001</v>
       </c>
       <c r="B11" s="1">
         <v>10.354424</v>
       </c>
       <c r="C11" s="1">
-        <v>1252.960000</v>
+        <v>1252.96</v>
       </c>
       <c r="D11" s="1">
-        <v>-281.425000</v>
+        <v>-281.42500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>37286.334520</v>
+        <v>37286.334519999997</v>
       </c>
       <c r="G11" s="1">
         <v>10.357315</v>
       </c>
       <c r="H11" s="1">
-        <v>1275.210000</v>
+        <v>1275.21</v>
       </c>
       <c r="I11" s="1">
-        <v>-245.929000</v>
+        <v>-245.929</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>37296.746006</v>
+        <v>37296.746006000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.360207</v>
+        <v>10.360207000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1308.040000</v>
+        <v>1308.04</v>
       </c>
       <c r="N11" s="1">
-        <v>-193.765000</v>
+        <v>-193.76499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>37307.266184</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.363129</v>
+        <v>10.363129000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.850000</v>
+        <v>1319.85</v>
       </c>
       <c r="S11" s="1">
-        <v>-179.171000</v>
+        <v>-179.17099999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>37317.788780</v>
+        <v>37317.788780000003</v>
       </c>
       <c r="V11" s="1">
         <v>10.366052</v>
       </c>
       <c r="W11" s="1">
-        <v>1334.420000</v>
+        <v>1334.42</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.512000</v>
+        <v>-168.512</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>37328.636781</v>
+        <v>37328.636781000001</v>
       </c>
       <c r="AA11" s="1">
         <v>10.369066</v>
       </c>
       <c r="AB11" s="1">
-        <v>1353.160000</v>
+        <v>1353.16</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.241000</v>
+        <v>-168.24100000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>37339.162414</v>
+        <v>37339.162413999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>10.371990</v>
+        <v>10.37199</v>
       </c>
       <c r="AG11" s="1">
-        <v>1367.130000</v>
+        <v>1367.13</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.707000</v>
+        <v>-178.70699999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>37349.638913</v>
+        <v>37349.638913000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.374900</v>
+        <v>10.3749</v>
       </c>
       <c r="AL11" s="1">
-        <v>1388.500000</v>
+        <v>1388.5</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.971000</v>
+        <v>-208.971</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>37360.054905</v>
+        <v>37360.054904999997</v>
       </c>
       <c r="AP11" s="1">
         <v>10.377793</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.953000</v>
+        <v>-252.953</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>37370.809124</v>
+        <v>37370.809123999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.380780</v>
+        <v>10.38078</v>
       </c>
       <c r="AV11" s="1">
-        <v>1435.200000</v>
+        <v>1435.2</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.109000</v>
+        <v>-313.10899999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>37381.439385</v>
+        <v>37381.439384999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.383733</v>
+        <v>10.383732999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1454.480000</v>
+        <v>1454.48</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.419000</v>
+        <v>-365.41899999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>37392.164904</v>
+        <v>37392.164903999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.386712</v>
+        <v>10.386711999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1539.360000</v>
+        <v>1539.36</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.663000</v>
+        <v>-614.66300000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>37403.037675</v>
@@ -2974,392 +3390,392 @@
         <v>10.389733</v>
       </c>
       <c r="BK11" s="1">
-        <v>1692.640000</v>
+        <v>1692.64</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1062.500000</v>
+        <v>-1062.5</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>37413.343053</v>
+        <v>37413.343052999997</v>
       </c>
       <c r="BO11" s="1">
         <v>10.392595</v>
       </c>
       <c r="BP11" s="1">
-        <v>1985.310000</v>
+        <v>1985.31</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1840.270000</v>
+        <v>-1840.27</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>37424.303179</v>
+        <v>37424.303179000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.395640</v>
+        <v>10.39564</v>
       </c>
       <c r="BU11" s="1">
-        <v>2370.560000</v>
+        <v>2370.56</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2738.000000</v>
+        <v>-2738</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>37435.058896</v>
+        <v>37435.058896000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.398627</v>
+        <v>10.398626999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.500000</v>
+        <v>2852.5</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3725.560000</v>
+        <v>-3725.56</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>37446.929152</v>
+        <v>37446.929151999997</v>
       </c>
       <c r="CD11" s="1">
         <v>10.401925</v>
       </c>
       <c r="CE11" s="1">
-        <v>4278.240000</v>
+        <v>4278.24</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6099.670000</v>
+        <v>-6099.67</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>37276.269169</v>
+        <v>37276.269168999999</v>
       </c>
       <c r="B12" s="1">
         <v>10.354519</v>
       </c>
       <c r="C12" s="1">
-        <v>1252.350000</v>
+        <v>1252.3499999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-281.475000</v>
+        <v>-281.47500000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>37286.679231</v>
+        <v>37286.679231000002</v>
       </c>
       <c r="G12" s="1">
-        <v>10.357411</v>
+        <v>10.357411000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1274.050000</v>
+        <v>1274.05</v>
       </c>
       <c r="I12" s="1">
-        <v>-245.596000</v>
+        <v>-245.596</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>37297.092346</v>
+        <v>37297.092345999998</v>
       </c>
       <c r="L12" s="1">
         <v>10.360303</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.390000</v>
+        <v>1307.3900000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-193.826000</v>
+        <v>-193.82599999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>37307.961545</v>
+        <v>37307.961544999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.363323</v>
+        <v>10.363322999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.900000</v>
+        <v>1319.9</v>
       </c>
       <c r="S12" s="1">
-        <v>-179.141000</v>
+        <v>-179.14099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>37318.475739</v>
+        <v>37318.475739000001</v>
       </c>
       <c r="V12" s="1">
-        <v>10.366243</v>
+        <v>10.366243000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1334.420000</v>
+        <v>1334.42</v>
       </c>
       <c r="X12" s="1">
-        <v>-168.555000</v>
+        <v>-168.55500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>37328.983483</v>
+        <v>37328.983483000004</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.369162</v>
+        <v>10.369161999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1353.350000</v>
+        <v>1353.35</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.281000</v>
+        <v>-168.28100000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>37339.507103</v>
+        <v>37339.507103000004</v>
       </c>
       <c r="AF12" s="1">
         <v>10.372085</v>
       </c>
       <c r="AG12" s="1">
-        <v>1367.090000</v>
+        <v>1367.09</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.708000</v>
+        <v>-178.708</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>37349.987072</v>
+        <v>37349.987072000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>10.374996</v>
+        <v>10.374995999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1388.510000</v>
+        <v>1388.51</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.990000</v>
+        <v>-208.99</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>37360.726480</v>
+        <v>37360.726479999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.377980</v>
+        <v>10.377980000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.988000</v>
+        <v>-252.988</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>37371.258509</v>
+        <v>37371.258508999999</v>
       </c>
       <c r="AU12" s="1">
         <v>10.380905</v>
       </c>
       <c r="AV12" s="1">
-        <v>1435.210000</v>
+        <v>1435.21</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.099000</v>
+        <v>-313.09899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>37381.842662</v>
+        <v>37381.842662000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.383845</v>
+        <v>10.383845000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1454.490000</v>
+        <v>1454.49</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.405000</v>
+        <v>-365.40499999999997</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>37392.556216</v>
+        <v>37392.556215999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.386821</v>
+        <v>10.386820999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1539.380000</v>
+        <v>1539.38</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.665000</v>
+        <v>-614.66499999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>37403.443930</v>
+        <v>37403.443930000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>10.389846</v>
       </c>
       <c r="BK12" s="1">
-        <v>1692.810000</v>
+        <v>1692.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1062.510000</v>
+        <v>-1062.51</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>37413.738365</v>
+        <v>37413.738364999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.392705</v>
+        <v>10.392704999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1985.150000</v>
+        <v>1985.15</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1840.210000</v>
+        <v>-1840.21</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>37424.725774</v>
+        <v>37424.725773999999</v>
       </c>
       <c r="BT12" s="1">
         <v>10.395757</v>
       </c>
       <c r="BU12" s="1">
-        <v>2371.000000</v>
+        <v>2371</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2737.730000</v>
+        <v>-2737.73</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>37435.475568</v>
+        <v>37435.475568000002</v>
       </c>
       <c r="BY12" s="1">
         <v>10.398743</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2851.900000</v>
+        <v>2851.9</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3725.620000</v>
+        <v>-3725.62</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>37447.456429</v>
+        <v>37447.456428999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.402071</v>
+        <v>10.402070999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4260.980000</v>
+        <v>4260.9799999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6104.340000</v>
+        <v>-6104.34</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>37276.611938</v>
+        <v>37276.611938000002</v>
       </c>
       <c r="B13" s="1">
         <v>10.354614</v>
       </c>
       <c r="C13" s="1">
-        <v>1252.320000</v>
+        <v>1252.32</v>
       </c>
       <c r="D13" s="1">
-        <v>-281.514000</v>
+        <v>-281.51400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>37287.366164</v>
+        <v>37287.366163999999</v>
       </c>
       <c r="G13" s="1">
         <v>10.357602</v>
       </c>
       <c r="H13" s="1">
-        <v>1274.440000</v>
+        <v>1274.44</v>
       </c>
       <c r="I13" s="1">
-        <v>-246.091000</v>
+        <v>-246.09100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>37297.786150</v>
+        <v>37297.78615</v>
       </c>
       <c r="L13" s="1">
-        <v>10.360496</v>
+        <v>10.360495999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1307.530000</v>
+        <v>1307.53</v>
       </c>
       <c r="N13" s="1">
-        <v>-193.795000</v>
+        <v>-193.79499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>37308.309767</v>
+        <v>37308.309766999999</v>
       </c>
       <c r="Q13" s="1">
         <v>10.363419</v>
       </c>
       <c r="R13" s="1">
-        <v>1319.990000</v>
+        <v>1319.99</v>
       </c>
       <c r="S13" s="1">
-        <v>-179.085000</v>
+        <v>-179.08500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>37318.820494</v>
@@ -3368,13 +3784,13 @@
         <v>10.366339</v>
       </c>
       <c r="W13" s="1">
-        <v>1334.360000</v>
+        <v>1334.36</v>
       </c>
       <c r="X13" s="1">
-        <v>-168.546000</v>
+        <v>-168.54599999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>37329.330683</v>
@@ -3383,133 +3799,133 @@
         <v>10.369259</v>
       </c>
       <c r="AB13" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.311000</v>
+        <v>-168.31100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>37340.178221</v>
+        <v>37340.178221000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.372272</v>
+        <v>10.372272000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1367.090000</v>
+        <v>1367.09</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.695000</v>
+        <v>-178.69499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>37350.647744</v>
+        <v>37350.647744000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>10.375180</v>
+        <v>10.37518</v>
       </c>
       <c r="AL13" s="1">
-        <v>1388.510000</v>
+        <v>1388.51</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.986000</v>
+        <v>-208.98599999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>37361.170025</v>
+        <v>37361.170024999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>10.378103</v>
+        <v>10.378102999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.985000</v>
+        <v>-252.98500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>37371.522373</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.380978</v>
+        <v>10.380978000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1435.170000</v>
+        <v>1435.17</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.120000</v>
+        <v>-313.12</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>37382.231525</v>
+        <v>37382.231525000003</v>
       </c>
       <c r="AZ13" s="1">
         <v>10.383953</v>
       </c>
       <c r="BA13" s="1">
-        <v>1454.540000</v>
+        <v>1454.54</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.360000</v>
+        <v>-365.36</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>37392.919319</v>
+        <v>37392.919319000001</v>
       </c>
       <c r="BE13" s="1">
         <v>10.386922</v>
       </c>
       <c r="BF13" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.664000</v>
+        <v>-614.66399999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>37403.818377</v>
+        <v>37403.818377000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.389950</v>
+        <v>10.389950000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1692.740000</v>
+        <v>1692.74</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1062.510000</v>
+        <v>-1062.51</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>37414.159467</v>
+        <v>37414.159466999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>10.392822</v>
+        <v>10.392822000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1985.230000</v>
+        <v>1985.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1840.280000</v>
+        <v>-1840.28</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>37425.144365</v>
@@ -3518,604 +3934,604 @@
         <v>10.395873</v>
       </c>
       <c r="BU13" s="1">
-        <v>2371.240000</v>
+        <v>2371.2399999999998</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2737.910000</v>
+        <v>-2737.91</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>37435.922926</v>
+        <v>37435.922925999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.398867</v>
+        <v>10.398866999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.400000</v>
+        <v>2852.4</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3725.840000</v>
+        <v>-3725.84</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>37447.976702</v>
       </c>
       <c r="CD13" s="1">
-        <v>10.402216</v>
+        <v>10.402215999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4276.270000</v>
+        <v>4276.2700000000004</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6121.700000</v>
+        <v>-6121.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>37277.290433</v>
+        <v>37277.290433000002</v>
       </c>
       <c r="B14" s="1">
         <v>10.354803</v>
       </c>
       <c r="C14" s="1">
-        <v>1252.080000</v>
+        <v>1252.08</v>
       </c>
       <c r="D14" s="1">
-        <v>-281.554000</v>
+        <v>-281.55399999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>37287.714850</v>
+        <v>37287.714849999997</v>
       </c>
       <c r="G14" s="1">
         <v>10.357699</v>
       </c>
       <c r="H14" s="1">
-        <v>1274.200000</v>
+        <v>1274.2</v>
       </c>
       <c r="I14" s="1">
-        <v>-245.042000</v>
+        <v>-245.042</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>37298.131860</v>
+        <v>37298.131860000001</v>
       </c>
       <c r="L14" s="1">
         <v>10.360592</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.220000</v>
+        <v>1307.22</v>
       </c>
       <c r="N14" s="1">
-        <v>-193.965000</v>
+        <v>-193.965</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>37308.658955</v>
+        <v>37308.658954999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.363516</v>
+        <v>10.363516000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1319.920000</v>
+        <v>1319.92</v>
       </c>
       <c r="S14" s="1">
-        <v>-179.184000</v>
+        <v>-179.184</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>37319.180554</v>
+        <v>37319.180553999999</v>
       </c>
       <c r="V14" s="1">
         <v>10.366439</v>
       </c>
       <c r="W14" s="1">
-        <v>1334.350000</v>
+        <v>1334.35</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.612000</v>
+        <v>-168.61199999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>37329.984906</v>
+        <v>37329.984905999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.369440</v>
+        <v>10.369440000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1353.270000</v>
+        <v>1353.27</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.318000</v>
+        <v>-168.31800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>37340.540300</v>
+        <v>37340.540300000001</v>
       </c>
       <c r="AF14" s="1">
         <v>10.372372</v>
       </c>
       <c r="AG14" s="1">
-        <v>1367.090000</v>
+        <v>1367.09</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.686000</v>
+        <v>-178.68600000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>37351.031683</v>
+        <v>37351.031683000001</v>
       </c>
       <c r="AK14" s="1">
         <v>10.375287</v>
       </c>
       <c r="AL14" s="1">
-        <v>1388.510000</v>
+        <v>1388.51</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.982000</v>
+        <v>-208.982</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>37361.529009</v>
+        <v>37361.529008999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>10.378203</v>
+        <v>10.378202999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.967000</v>
+        <v>-252.96700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>37371.872051</v>
+        <v>37371.872050999998</v>
       </c>
       <c r="AU14" s="1">
         <v>10.381076</v>
       </c>
       <c r="AV14" s="1">
-        <v>1435.200000</v>
+        <v>1435.2</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.105000</v>
+        <v>-313.10500000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>37382.587622</v>
+        <v>37382.587621999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>10.384052</v>
+        <v>10.384052000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.324000</v>
+        <v>-365.32400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>37393.329018</v>
+        <v>37393.329017999997</v>
       </c>
       <c r="BE14" s="1">
         <v>10.387036</v>
       </c>
       <c r="BF14" s="1">
-        <v>1539.350000</v>
+        <v>1539.35</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.664000</v>
+        <v>-614.66399999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>37404.237528</v>
+        <v>37404.237527999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.390066</v>
+        <v>10.390065999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1692.710000</v>
+        <v>1692.71</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1062.450000</v>
+        <v>-1062.45</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>37414.558746</v>
+        <v>37414.558746000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.392933</v>
+        <v>10.392932999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1985.270000</v>
+        <v>1985.27</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1840.220000</v>
+        <v>-1840.22</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>37425.574894</v>
+        <v>37425.574893999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.395993</v>
+        <v>10.395993000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2371.790000</v>
+        <v>2371.79</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2737.960000</v>
+        <v>-2737.96</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>37436.345518</v>
+        <v>37436.345518000002</v>
       </c>
       <c r="BY14" s="1">
         <v>10.398985</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.260000</v>
+        <v>2852.26</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3725.370000</v>
+        <v>-3725.37</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>37448.515856</v>
+        <v>37448.515855999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.402366</v>
+        <v>10.402366000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4273.460000</v>
+        <v>4273.46</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6100.370000</v>
+        <v>-6100.37</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>37277.635674</v>
+        <v>37277.635673999997</v>
       </c>
       <c r="B15" s="1">
         <v>10.354899</v>
       </c>
       <c r="C15" s="1">
-        <v>1252.330000</v>
+        <v>1252.33</v>
       </c>
       <c r="D15" s="1">
-        <v>-281.119000</v>
+        <v>-281.11900000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>37288.059075</v>
+        <v>37288.059074999997</v>
       </c>
       <c r="G15" s="1">
         <v>10.357794</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.840000</v>
+        <v>1273.8399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-245.645000</v>
+        <v>-245.64500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>37298.472084</v>
+        <v>37298.472084000001</v>
       </c>
       <c r="L15" s="1">
         <v>10.360687</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.420000</v>
+        <v>1307.42</v>
       </c>
       <c r="N15" s="1">
-        <v>-193.523000</v>
+        <v>-193.523</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>37309.326563</v>
+        <v>37309.326563000002</v>
       </c>
       <c r="Q15" s="1">
         <v>10.363702</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S15" s="1">
-        <v>-179.339000</v>
+        <v>-179.339</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>37319.798072</v>
+        <v>37319.798071999998</v>
       </c>
       <c r="V15" s="1">
-        <v>10.366611</v>
+        <v>10.366611000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1334.400000</v>
+        <v>1334.4</v>
       </c>
       <c r="X15" s="1">
-        <v>-168.568000</v>
+        <v>-168.56800000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>37330.378763</v>
+        <v>37330.378763000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>10.369550</v>
+        <v>10.36955</v>
       </c>
       <c r="AB15" s="1">
-        <v>1353.410000</v>
+        <v>1353.41</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.299000</v>
+        <v>-168.29900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>37340.882013</v>
+        <v>37340.882013000002</v>
       </c>
       <c r="AF15" s="1">
         <v>10.372467</v>
       </c>
       <c r="AG15" s="1">
-        <v>1367.130000</v>
+        <v>1367.13</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.672000</v>
+        <v>-178.672</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>37351.381326</v>
+        <v>37351.381326000002</v>
       </c>
       <c r="AK15" s="1">
         <v>10.375384</v>
       </c>
       <c r="AL15" s="1">
-        <v>1388.510000</v>
+        <v>1388.51</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.975000</v>
+        <v>-208.97499999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>37361.886773</v>
+        <v>37361.886772999998</v>
       </c>
       <c r="AP15" s="1">
         <v>10.378302</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.995000</v>
+        <v>-252.995</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>37372.281746</v>
+        <v>37372.281746000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>10.381189</v>
+        <v>10.381188999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1435.170000</v>
+        <v>1435.17</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.126000</v>
+        <v>-313.12599999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>37383.001444</v>
+        <v>37383.001444000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.384167</v>
       </c>
       <c r="BA15" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.368000</v>
+        <v>-365.36799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>37393.642489</v>
+        <v>37393.642488999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.387123</v>
+        <v>10.387123000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1539.350000</v>
+        <v>1539.35</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.681000</v>
+        <v>-614.68100000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>37404.592169</v>
+        <v>37404.592169000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>10.390164</v>
       </c>
       <c r="BK15" s="1">
-        <v>1692.720000</v>
+        <v>1692.72</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1062.530000</v>
+        <v>-1062.53</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>37414.976416</v>
+        <v>37414.976415999998</v>
       </c>
       <c r="BO15" s="1">
         <v>10.393049</v>
       </c>
       <c r="BP15" s="1">
-        <v>1985.110000</v>
+        <v>1985.11</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1840.140000</v>
+        <v>-1840.14</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>37425.986572</v>
+        <v>37425.986572000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.396107</v>
+        <v>10.396107000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2372.100000</v>
+        <v>2372.1</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2738.580000</v>
+        <v>-2738.58</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>37436.771087</v>
+        <v>37436.771087000001</v>
       </c>
       <c r="BY15" s="1">
         <v>10.399103</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.240000</v>
+        <v>2852.24</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3725.360000</v>
+        <v>-3725.36</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>37449.055007</v>
+        <v>37449.055007000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.402515</v>
+        <v>10.402514999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4263.350000</v>
+        <v>4263.3500000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6114.880000</v>
+        <v>-6114.88</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>37277.973920</v>
+        <v>37277.973919999997</v>
       </c>
       <c r="B16" s="1">
         <v>10.354993</v>
       </c>
       <c r="C16" s="1">
-        <v>1252.780000</v>
+        <v>1252.78</v>
       </c>
       <c r="D16" s="1">
-        <v>-281.575000</v>
+        <v>-281.57499999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>37288.708867</v>
+        <v>37288.708867000001</v>
       </c>
       <c r="G16" s="1">
         <v>10.357975</v>
       </c>
       <c r="H16" s="1">
-        <v>1274.460000</v>
+        <v>1274.46</v>
       </c>
       <c r="I16" s="1">
-        <v>-245.916000</v>
+        <v>-245.916</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>37299.131298</v>
       </c>
       <c r="L16" s="1">
-        <v>10.360870</v>
+        <v>10.36087</v>
       </c>
       <c r="M16" s="1">
-        <v>1307.440000</v>
+        <v>1307.44</v>
       </c>
       <c r="N16" s="1">
-        <v>-193.767000</v>
+        <v>-193.767</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>37309.705016</v>
@@ -4124,178 +4540,178 @@
         <v>10.363807</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.850000</v>
+        <v>1319.85</v>
       </c>
       <c r="S16" s="1">
-        <v>-179.242000</v>
+        <v>-179.24199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>37320.202311</v>
+        <v>37320.202311000001</v>
       </c>
       <c r="V16" s="1">
         <v>10.366723</v>
       </c>
       <c r="W16" s="1">
-        <v>1334.340000</v>
+        <v>1334.34</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.604000</v>
+        <v>-168.60400000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>37330.726954</v>
+        <v>37330.726953999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.369646</v>
+        <v>10.369645999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1353.390000</v>
+        <v>1353.39</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.787000</v>
+        <v>-168.78700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>37341.226237</v>
+        <v>37341.226237000003</v>
       </c>
       <c r="AF16" s="1">
         <v>10.372563</v>
       </c>
       <c r="AG16" s="1">
-        <v>1367.090000</v>
+        <v>1367.09</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.708000</v>
+        <v>-178.708</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>37351.728030</v>
+        <v>37351.728029999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.375480</v>
+        <v>10.37548</v>
       </c>
       <c r="AL16" s="1">
-        <v>1388.500000</v>
+        <v>1388.5</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.986000</v>
+        <v>-208.98599999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>37362.309716</v>
+        <v>37362.309716000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.378419</v>
+        <v>10.378418999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.972000</v>
+        <v>-252.97200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>37372.601666</v>
+        <v>37372.601666000002</v>
       </c>
       <c r="AU16" s="1">
         <v>10.381278</v>
       </c>
       <c r="AV16" s="1">
-        <v>1435.180000</v>
+        <v>1435.18</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.095000</v>
+        <v>-313.09500000000003</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>37383.305332</v>
+        <v>37383.305332000004</v>
       </c>
       <c r="AZ16" s="1">
-        <v>10.384251</v>
+        <v>10.384251000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1454.530000</v>
+        <v>1454.53</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.333000</v>
+        <v>-365.33300000000003</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>37394.003572</v>
+        <v>37394.003572000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.387223</v>
+        <v>10.387223000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.633000</v>
+        <v>-614.63300000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>37404.969629</v>
+        <v>37404.969628999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.390269</v>
       </c>
       <c r="BK16" s="1">
-        <v>1692.700000</v>
+        <v>1692.7</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1062.560000</v>
+        <v>-1062.56</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>37415.375162</v>
+        <v>37415.375161999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.393160</v>
+        <v>10.39316</v>
       </c>
       <c r="BP16" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1840.150000</v>
+        <v>-1840.15</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>37426.414284</v>
+        <v>37426.414283999999</v>
       </c>
       <c r="BT16" s="1">
         <v>10.396226</v>
       </c>
       <c r="BU16" s="1">
-        <v>2372.500000</v>
+        <v>2372.5</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2738.390000</v>
+        <v>-2738.39</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>37437.215998</v>
@@ -4304,210 +4720,210 @@
         <v>10.399227</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2852.190000</v>
+        <v>2852.19</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3725.940000</v>
+        <v>-3725.94</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>37449.595644</v>
+        <v>37449.595644000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>10.402665</v>
+        <v>10.402665000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4282.740000</v>
+        <v>4282.74</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6115.430000</v>
+        <v>-6115.43</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>37278.630660</v>
+        <v>37278.630660000003</v>
       </c>
       <c r="B17" s="1">
-        <v>10.355175</v>
+        <v>10.355174999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1252.050000</v>
+        <v>1252.05</v>
       </c>
       <c r="D17" s="1">
-        <v>-281.700000</v>
+        <v>-281.7</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>37289.093274</v>
+        <v>37289.093273999999</v>
       </c>
       <c r="G17" s="1">
         <v>10.358081</v>
       </c>
       <c r="H17" s="1">
-        <v>1274.680000</v>
+        <v>1274.68</v>
       </c>
       <c r="I17" s="1">
-        <v>-245.195000</v>
+        <v>-245.19499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>37299.514675</v>
+        <v>37299.514674999999</v>
       </c>
       <c r="L17" s="1">
-        <v>10.360976</v>
+        <v>10.360976000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1307.750000</v>
+        <v>1307.75</v>
       </c>
       <c r="N17" s="1">
-        <v>-193.484000</v>
+        <v>-193.48400000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>37310.053670</v>
+        <v>37310.053670000001</v>
       </c>
       <c r="Q17" s="1">
         <v>10.363904</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.880000</v>
+        <v>1319.88</v>
       </c>
       <c r="S17" s="1">
-        <v>-179.145000</v>
+        <v>-179.14500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>37320.548520</v>
+        <v>37320.548519999997</v>
       </c>
       <c r="V17" s="1">
         <v>10.366819</v>
       </c>
       <c r="W17" s="1">
-        <v>1334.250000</v>
+        <v>1334.25</v>
       </c>
       <c r="X17" s="1">
-        <v>-168.498000</v>
+        <v>-168.49799999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>37331.074617</v>
+        <v>37331.074616999998</v>
       </c>
       <c r="AA17" s="1">
         <v>10.369743</v>
       </c>
       <c r="AB17" s="1">
-        <v>1353.170000</v>
+        <v>1353.17</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.248000</v>
+        <v>-168.24799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>37341.642874</v>
+        <v>37341.642873999997</v>
       </c>
       <c r="AF17" s="1">
         <v>10.372679</v>
       </c>
       <c r="AG17" s="1">
-        <v>1367.160000</v>
+        <v>1367.16</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.677000</v>
+        <v>-178.67699999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>37352.161571</v>
+        <v>37352.161570999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.375600</v>
+        <v>10.3756</v>
       </c>
       <c r="AL17" s="1">
-        <v>1388.520000</v>
+        <v>1388.52</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.988000</v>
+        <v>-208.988</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>37362.608271</v>
+        <v>37362.608270999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.378502</v>
+        <v>10.378501999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.005000</v>
+        <v>-253.005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>37372.966723</v>
+        <v>37372.966722999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.381380</v>
+        <v>10.38138</v>
       </c>
       <c r="AV17" s="1">
-        <v>1435.210000</v>
+        <v>1435.21</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.106000</v>
+        <v>-313.10599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>37383.663941</v>
+        <v>37383.663940999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.384351</v>
+        <v>10.384351000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1454.490000</v>
+        <v>1454.49</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.373000</v>
+        <v>-365.37299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>37394.363671</v>
+        <v>37394.363670999999</v>
       </c>
       <c r="BE17" s="1">
         <v>10.387323</v>
       </c>
       <c r="BF17" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.655000</v>
+        <v>-614.65499999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>37405.344567</v>
@@ -4516,135 +4932,135 @@
         <v>10.390373</v>
       </c>
       <c r="BK17" s="1">
-        <v>1692.730000</v>
+        <v>1692.73</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1062.420000</v>
+        <v>-1062.42</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>37415.797257</v>
+        <v>37415.797256999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>10.393277</v>
+        <v>10.393276999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1985.190000</v>
+        <v>1985.19</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1840.130000</v>
+        <v>-1840.13</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>37426.846138</v>
+        <v>37426.846138000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.396346</v>
+        <v>10.396345999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>2372.530000</v>
+        <v>2372.5300000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2738.680000</v>
+        <v>-2738.68</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>37437.649500</v>
+        <v>37437.6495</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.399347</v>
+        <v>10.399347000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2852.710000</v>
+        <v>2852.71</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3725.920000</v>
+        <v>-3725.92</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>37450.133340</v>
+        <v>37450.13334</v>
       </c>
       <c r="CD17" s="1">
         <v>10.402815</v>
       </c>
       <c r="CE17" s="1">
-        <v>4261.290000</v>
+        <v>4261.29</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6102.550000</v>
+        <v>-6102.55</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>37279.003118</v>
+        <v>37279.003118000001</v>
       </c>
       <c r="B18" s="1">
-        <v>10.355279</v>
+        <v>10.355278999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1252.530000</v>
+        <v>1252.53</v>
       </c>
       <c r="D18" s="1">
-        <v>-281.249000</v>
+        <v>-281.24900000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>37289.438448</v>
+        <v>37289.438448000001</v>
       </c>
       <c r="G18" s="1">
         <v>10.358177</v>
       </c>
       <c r="H18" s="1">
-        <v>1274.050000</v>
+        <v>1274.05</v>
       </c>
       <c r="I18" s="1">
-        <v>-246.032000</v>
+        <v>-246.03200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>37299.859923</v>
+        <v>37299.859923000004</v>
       </c>
       <c r="L18" s="1">
         <v>10.361072</v>
       </c>
       <c r="M18" s="1">
-        <v>1307.560000</v>
+        <v>1307.56</v>
       </c>
       <c r="N18" s="1">
-        <v>-193.501000</v>
+        <v>-193.501</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>37310.405830</v>
+        <v>37310.405830000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.364002</v>
+        <v>10.364001999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S18" s="1">
-        <v>-179.114000</v>
+        <v>-179.114</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>37320.973607</v>
@@ -4653,13 +5069,13 @@
         <v>10.366937</v>
       </c>
       <c r="W18" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.519000</v>
+        <v>-168.51900000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>37331.506664</v>
@@ -4668,405 +5084,405 @@
         <v>10.369863</v>
       </c>
       <c r="AB18" s="1">
-        <v>1353.220000</v>
+        <v>1353.22</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.342000</v>
+        <v>-168.34200000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>37341.924603</v>
+        <v>37341.924602999999</v>
       </c>
       <c r="AF18" s="1">
         <v>10.372757</v>
       </c>
       <c r="AG18" s="1">
-        <v>1367.140000</v>
+        <v>1367.14</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.657000</v>
+        <v>-178.65700000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>37352.442270</v>
+        <v>37352.44227</v>
       </c>
       <c r="AK18" s="1">
-        <v>10.375678</v>
+        <v>10.375678000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1388.480000</v>
+        <v>1388.48</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.977000</v>
+        <v>-208.977</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>37362.968900</v>
+        <v>37362.9689</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.378602</v>
+        <v>10.378602000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.993000</v>
+        <v>-252.99299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>37373.330786</v>
+        <v>37373.330785999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.381481</v>
+        <v>10.381481000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1435.180000</v>
+        <v>1435.18</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.106000</v>
+        <v>-313.10599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>37384.023043</v>
+        <v>37384.023043000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>10.384451</v>
       </c>
       <c r="BA18" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.369000</v>
+        <v>-365.36900000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>37395.086308</v>
+        <v>37395.086307999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>10.387524</v>
+        <v>10.387524000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1539.410000</v>
+        <v>1539.41</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.642000</v>
+        <v>-614.64200000000005</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>37406.096503</v>
+        <v>37406.096503000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.390582</v>
       </c>
       <c r="BK18" s="1">
-        <v>1692.720000</v>
+        <v>1692.72</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1062.430000</v>
+        <v>-1062.43</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>37416.194552</v>
+        <v>37416.194552000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.393387</v>
+        <v>10.393387000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1985.260000</v>
+        <v>1985.26</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1840.230000</v>
+        <v>-1840.23</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>37427.254347</v>
+        <v>37427.254347000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.396460</v>
+        <v>10.396459999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2372.980000</v>
+        <v>2372.98</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2738.830000</v>
+        <v>-2738.83</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>37438.069611</v>
+        <v>37438.069610999999</v>
       </c>
       <c r="BY18" s="1">
         <v>10.399464</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2852.820000</v>
+        <v>2852.82</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3725.540000</v>
+        <v>-3725.54</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>37450.984475</v>
+        <v>37450.984474999997</v>
       </c>
       <c r="CD18" s="1">
         <v>10.403051</v>
       </c>
       <c r="CE18" s="1">
-        <v>4282.880000</v>
+        <v>4282.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6104.170000</v>
+        <v>-6104.17</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>37279.344863</v>
+        <v>37279.344862999998</v>
       </c>
       <c r="B19" s="1">
-        <v>10.355374</v>
+        <v>10.355373999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1252.170000</v>
+        <v>1252.17</v>
       </c>
       <c r="D19" s="1">
-        <v>-281.362000</v>
+        <v>-281.36200000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>37289.782702</v>
+        <v>37289.782701999997</v>
       </c>
       <c r="G19" s="1">
-        <v>10.358273</v>
+        <v>10.358273000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1275.190000</v>
+        <v>1275.19</v>
       </c>
       <c r="I19" s="1">
-        <v>-246.028000</v>
+        <v>-246.02799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>37300.207091</v>
+        <v>37300.207090999997</v>
       </c>
       <c r="L19" s="1">
         <v>10.361169</v>
       </c>
       <c r="M19" s="1">
-        <v>1307.340000</v>
+        <v>1307.3399999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-193.816000</v>
+        <v>-193.816</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>37310.831428</v>
+        <v>37310.831427999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.364120</v>
+        <v>10.36412</v>
       </c>
       <c r="R19" s="1">
-        <v>1319.980000</v>
+        <v>1319.98</v>
       </c>
       <c r="S19" s="1">
-        <v>-179.118000</v>
+        <v>-179.11799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>37321.252374</v>
+        <v>37321.252374000003</v>
       </c>
       <c r="V19" s="1">
         <v>10.367015</v>
       </c>
       <c r="W19" s="1">
-        <v>1334.320000</v>
+        <v>1334.32</v>
       </c>
       <c r="X19" s="1">
-        <v>-168.443000</v>
+        <v>-168.44300000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>37331.783400</v>
+        <v>37331.7834</v>
       </c>
       <c r="AA19" s="1">
-        <v>10.369940</v>
+        <v>10.36994</v>
       </c>
       <c r="AB19" s="1">
-        <v>1353.270000</v>
+        <v>1353.27</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.264000</v>
+        <v>-168.26400000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>37342.264362</v>
+        <v>37342.264362000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.372851</v>
+        <v>10.372851000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1367.030000</v>
+        <v>1367.03</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.700000</v>
+        <v>-178.7</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>37352.789005</v>
+        <v>37352.789004999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.375775</v>
+        <v>10.375775000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1388.530000</v>
+        <v>1388.53</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.958000</v>
+        <v>-208.958</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>37363.328959</v>
+        <v>37363.328958999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.378702</v>
+        <v>10.378702000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1410.540000</v>
+        <v>1410.54</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.991000</v>
+        <v>-252.99100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>37374.062416</v>
+        <v>37374.062416000001</v>
       </c>
       <c r="AU19" s="1">
         <v>10.381684</v>
       </c>
       <c r="AV19" s="1">
-        <v>1435.190000</v>
+        <v>1435.19</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.104000</v>
+        <v>-313.10399999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>37384.745218</v>
+        <v>37384.745217999996</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.384651</v>
       </c>
       <c r="BA19" s="1">
-        <v>1454.530000</v>
+        <v>1454.53</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.355000</v>
+        <v>-365.35500000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>37395.475697</v>
+        <v>37395.475697000002</v>
       </c>
       <c r="BE19" s="1">
         <v>10.387632</v>
       </c>
       <c r="BF19" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.651000</v>
+        <v>-614.65099999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>37406.470487</v>
+        <v>37406.470486999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.390686</v>
+        <v>10.390686000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1692.680000</v>
+        <v>1692.68</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1062.450000</v>
+        <v>-1062.45</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>37416.614177</v>
+        <v>37416.614177000003</v>
       </c>
       <c r="BO19" s="1">
         <v>10.393504</v>
       </c>
       <c r="BP19" s="1">
-        <v>1985.190000</v>
+        <v>1985.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1840.090000</v>
+        <v>-1840.09</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>37427.991401</v>
+        <v>37427.991400999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.396664</v>
+        <v>10.396663999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2372.680000</v>
+        <v>2372.6799999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2739.160000</v>
+        <v>-2739.16</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>37438.796747</v>
@@ -5075,816 +5491,816 @@
         <v>10.399666</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.690000</v>
+        <v>2852.69</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3724.860000</v>
+        <v>-3724.86</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>37451.216105</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.403116</v>
+        <v>10.403116000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4284.100000</v>
+        <v>4284.1000000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6109.180000</v>
+        <v>-6109.18</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>37279.688094</v>
+        <v>37279.688093999997</v>
       </c>
       <c r="B20" s="1">
-        <v>10.355469</v>
+        <v>10.355468999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1252.390000</v>
+        <v>1252.3900000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-281.481000</v>
+        <v>-281.48099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>37290.206752</v>
+        <v>37290.206751999998</v>
       </c>
       <c r="G20" s="1">
-        <v>10.358391</v>
+        <v>10.358390999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1274.250000</v>
+        <v>1274.25</v>
       </c>
       <c r="I20" s="1">
-        <v>-245.853000</v>
+        <v>-245.85300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>37300.638609</v>
+        <v>37300.638609000001</v>
       </c>
       <c r="L20" s="1">
-        <v>10.361289</v>
+        <v>10.361288999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1307.400000</v>
+        <v>1307.4000000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-193.679000</v>
+        <v>-193.679</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>37311.111635</v>
+        <v>37311.111635000001</v>
       </c>
       <c r="Q20" s="1">
         <v>10.364198</v>
       </c>
       <c r="R20" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S20" s="1">
-        <v>-179.132000</v>
+        <v>-179.13200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>37321.595110</v>
+        <v>37321.595110000002</v>
       </c>
       <c r="V20" s="1">
-        <v>10.367110</v>
+        <v>10.36711</v>
       </c>
       <c r="W20" s="1">
-        <v>1334.440000</v>
+        <v>1334.44</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.564000</v>
+        <v>-168.56399999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>37332.131095</v>
+        <v>37332.131094999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>10.370036</v>
+        <v>10.370036000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1353.440000</v>
+        <v>1353.44</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.247000</v>
+        <v>-168.24700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>37342.609579</v>
+        <v>37342.609579000004</v>
       </c>
       <c r="AF20" s="1">
         <v>10.372947</v>
       </c>
       <c r="AG20" s="1">
-        <v>1367.080000</v>
+        <v>1367.08</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.680000</v>
+        <v>-178.68</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>37353.140140</v>
+        <v>37353.140140000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.375872</v>
+        <v>10.375871999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1388.520000</v>
+        <v>1388.52</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.983000</v>
+        <v>-208.983</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>37364.055101</v>
+        <v>37364.055100999998</v>
       </c>
       <c r="AP20" s="1">
         <v>10.378904</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.966000</v>
+        <v>-252.96600000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>37374.442848</v>
+        <v>37374.442847999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.381790</v>
+        <v>10.381790000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1435.180000</v>
+        <v>1435.18</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.097000</v>
+        <v>-313.09699999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>37385.122210</v>
+        <v>37385.122210000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.384756</v>
+        <v>10.384755999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.311000</v>
+        <v>-365.31099999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>37395.857092</v>
+        <v>37395.857091999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.387738</v>
+        <v>10.387738000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1539.360000</v>
+        <v>1539.36</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.610000</v>
+        <v>-614.61</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>37407.153013</v>
+        <v>37407.153013000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>10.390876</v>
       </c>
       <c r="BK20" s="1">
-        <v>1692.670000</v>
+        <v>1692.67</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1062.360000</v>
+        <v>-1062.3599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>37417.316040</v>
+        <v>37417.316039999998</v>
       </c>
       <c r="BO20" s="1">
         <v>10.393699</v>
       </c>
       <c r="BP20" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1840.050000</v>
+        <v>-1840.05</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>37428.114079</v>
+        <v>37428.114078999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.396698</v>
+        <v>10.396698000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2373.070000</v>
+        <v>2373.0700000000002</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2739.490000</v>
+        <v>-2739.49</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>37438.917770</v>
+        <v>37438.91777</v>
       </c>
       <c r="BY20" s="1">
         <v>10.399699</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.230000</v>
+        <v>2852.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3725.270000</v>
+        <v>-3725.27</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>37451.736413</v>
+        <v>37451.736412999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.403260</v>
+        <v>10.40326</v>
       </c>
       <c r="CE20" s="1">
-        <v>4270.880000</v>
+        <v>4270.88</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6097.300000</v>
+        <v>-6097.3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>37280.107748</v>
+        <v>37280.107748000002</v>
       </c>
       <c r="B21" s="1">
         <v>10.355585</v>
       </c>
       <c r="C21" s="1">
-        <v>1252.750000</v>
+        <v>1252.75</v>
       </c>
       <c r="D21" s="1">
-        <v>-281.142000</v>
+        <v>-281.142</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>37290.478559</v>
+        <v>37290.478559000003</v>
       </c>
       <c r="G21" s="1">
         <v>10.358466</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.850000</v>
+        <v>1273.8499999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-245.221000</v>
+        <v>-245.221</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>37300.914385</v>
+        <v>37300.914384999996</v>
       </c>
       <c r="L21" s="1">
-        <v>10.361365</v>
+        <v>10.361364999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1307.650000</v>
+        <v>1307.6500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-193.836000</v>
+        <v>-193.83600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>37311.458024</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.364294</v>
+        <v>10.364293999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.910000</v>
+        <v>1319.91</v>
       </c>
       <c r="S21" s="1">
-        <v>-179.197000</v>
+        <v>-179.197</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>37321.940791</v>
+        <v>37321.940791000001</v>
       </c>
       <c r="V21" s="1">
-        <v>10.367206</v>
+        <v>10.367205999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1334.230000</v>
+        <v>1334.23</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.399000</v>
+        <v>-168.399</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>37332.477832</v>
+        <v>37332.477831999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.370133</v>
+        <v>10.370132999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1353.300000</v>
+        <v>1353.3</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.426000</v>
+        <v>-168.42599999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>37343.296041</v>
+        <v>37343.296041000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.373138</v>
+        <v>10.373138000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1367.160000</v>
+        <v>1367.16</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.677000</v>
+        <v>-178.67699999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>37353.835533</v>
+        <v>37353.835532999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>10.376065</v>
+        <v>10.376065000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1388.490000</v>
+        <v>1388.49</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.945000</v>
+        <v>-208.94499999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>37364.434081</v>
+        <v>37364.434080999999</v>
       </c>
       <c r="AP21" s="1">
         <v>10.379009</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.984000</v>
+        <v>-252.98400000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>37374.808405</v>
+        <v>37374.808405000003</v>
       </c>
       <c r="AU21" s="1">
         <v>10.381891</v>
       </c>
       <c r="AV21" s="1">
-        <v>1435.200000</v>
+        <v>1435.2</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.093000</v>
+        <v>-313.09300000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>37385.499665</v>
+        <v>37385.499665000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>10.384861</v>
+        <v>10.384861000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1454.510000</v>
+        <v>1454.51</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.366000</v>
+        <v>-365.36599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>37396.534626</v>
+        <v>37396.534626000001</v>
       </c>
       <c r="BE21" s="1">
         <v>10.387926</v>
       </c>
       <c r="BF21" s="1">
-        <v>1539.350000</v>
+        <v>1539.35</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.671000</v>
+        <v>-614.67100000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>37407.263092</v>
+        <v>37407.263092000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>10.390906</v>
+        <v>10.390905999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1692.700000</v>
+        <v>1692.7</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1062.400000</v>
+        <v>-1062.4000000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>37417.431756</v>
+        <v>37417.431755999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.393731</v>
+        <v>10.393731000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1985.150000</v>
+        <v>1985.15</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1839.970000</v>
+        <v>-1839.97</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>37428.524600</v>
+        <v>37428.524599999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.396812</v>
+        <v>10.396812000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2373.030000</v>
+        <v>2373.0300000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2740.010000</v>
+        <v>-2740.01</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>37439.365161</v>
+        <v>37439.365161000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.399824</v>
+        <v>10.399824000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2851.860000</v>
+        <v>2851.86</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3725.070000</v>
+        <v>-3725.07</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>37452.250233</v>
+        <v>37452.250232999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.403403</v>
+        <v>10.403403000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4259.740000</v>
+        <v>4259.74</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6111.030000</v>
+        <v>-6111.03</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>37280.387949</v>
+        <v>37280.387949000004</v>
       </c>
       <c r="B22" s="1">
         <v>10.355663</v>
       </c>
       <c r="C22" s="1">
-        <v>1252.880000</v>
+        <v>1252.8800000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-281.777000</v>
+        <v>-281.77699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>37290.827282</v>
+        <v>37290.827281999998</v>
       </c>
       <c r="G22" s="1">
         <v>10.358563</v>
       </c>
       <c r="H22" s="1">
-        <v>1274.290000</v>
+        <v>1274.29</v>
       </c>
       <c r="I22" s="1">
-        <v>-245.372000</v>
+        <v>-245.37200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>37301.258676</v>
+        <v>37301.258675999998</v>
       </c>
       <c r="L22" s="1">
         <v>10.361461</v>
       </c>
       <c r="M22" s="1">
-        <v>1307.570000</v>
+        <v>1307.57</v>
       </c>
       <c r="N22" s="1">
-        <v>-193.976000</v>
+        <v>-193.976</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>37311.807761</v>
+        <v>37311.807760999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.364391</v>
+        <v>10.364390999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.880000</v>
+        <v>1319.88</v>
       </c>
       <c r="S22" s="1">
-        <v>-179.075000</v>
+        <v>-179.07499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>37322.625269</v>
+        <v>37322.625268999996</v>
       </c>
       <c r="V22" s="1">
-        <v>10.367396</v>
+        <v>10.367395999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1334.310000</v>
+        <v>1334.31</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.432000</v>
+        <v>-168.43199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>37333.177190</v>
+        <v>37333.177190000002</v>
       </c>
       <c r="AA22" s="1">
         <v>10.370327</v>
       </c>
       <c r="AB22" s="1">
-        <v>1353.200000</v>
+        <v>1353.2</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.270000</v>
+        <v>-168.27</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>37343.632826</v>
+        <v>37343.632826000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.373231</v>
+        <v>10.373231000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1367.090000</v>
+        <v>1367.09</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.706000</v>
+        <v>-178.70599999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>37354.184220</v>
+        <v>37354.184220000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.376162</v>
+        <v>10.376162000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1388.530000</v>
+        <v>1388.53</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.969000</v>
+        <v>-208.96899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>37364.794637</v>
+        <v>37364.794636999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.379110</v>
+        <v>10.379110000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1410.490000</v>
+        <v>1410.49</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.962000</v>
+        <v>-252.96199999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>37375.476479</v>
+        <v>37375.476478999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.382077</v>
+        <v>10.382077000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1435.190000</v>
+        <v>1435.19</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.087000</v>
+        <v>-313.08699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>37386.170720</v>
+        <v>37386.170720000002</v>
       </c>
       <c r="AZ22" s="1">
         <v>10.385047</v>
       </c>
       <c r="BA22" s="1">
-        <v>1454.490000</v>
+        <v>1454.49</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.345000</v>
+        <v>-365.34500000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>37396.940354</v>
+        <v>37396.940353999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.388039</v>
+        <v>10.388038999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1539.360000</v>
+        <v>1539.36</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.618000</v>
+        <v>-614.61800000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>37407.632640</v>
+        <v>37407.632640000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>10.391009</v>
       </c>
       <c r="BK22" s="1">
-        <v>1692.730000</v>
+        <v>1692.73</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1062.420000</v>
+        <v>-1062.42</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>37417.856150</v>
+        <v>37417.85615</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.393849</v>
+        <v>10.393848999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1985.170000</v>
+        <v>1985.17</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1840.100000</v>
+        <v>-1840.1</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>37428.958632</v>
+        <v>37428.958632000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.396933</v>
+        <v>10.396933000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2373.080000</v>
+        <v>2373.08</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2740.300000</v>
+        <v>-2740.3</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>37439.798203</v>
+        <v>37439.798202999998</v>
       </c>
       <c r="BY22" s="1">
         <v>10.399944</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2852.620000</v>
+        <v>2852.62</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3726.090000</v>
+        <v>-3726.09</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>37452.772024</v>
+        <v>37452.772023999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.403548</v>
+        <v>10.403548000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4273.920000</v>
+        <v>4273.92</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6120.060000</v>
+        <v>-6120.06</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>37280.726716</v>
+        <v>37280.726715999997</v>
       </c>
       <c r="B23" s="1">
-        <v>10.355757</v>
+        <v>10.355757000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1252.520000</v>
+        <v>1252.52</v>
       </c>
       <c r="D23" s="1">
-        <v>-281.361000</v>
+        <v>-281.36099999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>37291.169983</v>
@@ -5893,435 +6309,435 @@
         <v>10.358658</v>
       </c>
       <c r="H23" s="1">
-        <v>1274.710000</v>
+        <v>1274.71</v>
       </c>
       <c r="I23" s="1">
-        <v>-244.565000</v>
+        <v>-244.565</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>37301.605349</v>
+        <v>37301.605348999998</v>
       </c>
       <c r="L23" s="1">
-        <v>10.361557</v>
+        <v>10.361556999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1307.550000</v>
+        <v>1307.55</v>
       </c>
       <c r="N23" s="1">
-        <v>-193.986000</v>
+        <v>-193.98599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>37312.504898</v>
+        <v>37312.504897999999</v>
       </c>
       <c r="Q23" s="1">
         <v>10.364585</v>
       </c>
       <c r="R23" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S23" s="1">
-        <v>-179.067000</v>
+        <v>-179.06700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>37322.968997</v>
+        <v>37322.968997000004</v>
       </c>
       <c r="V23" s="1">
-        <v>10.367491</v>
+        <v>10.367490999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1334.300000</v>
+        <v>1334.3</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.497000</v>
+        <v>-168.49700000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>37333.521879</v>
       </c>
       <c r="AA23" s="1">
-        <v>10.370423</v>
+        <v>10.370423000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1353.190000</v>
+        <v>1353.19</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.355000</v>
+        <v>-168.35499999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>37343.984520</v>
+        <v>37343.984519999998</v>
       </c>
       <c r="AF23" s="1">
         <v>10.373329</v>
       </c>
       <c r="AG23" s="1">
-        <v>1367.110000</v>
+        <v>1367.11</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.702000</v>
+        <v>-178.702</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>37354.845881</v>
+        <v>37354.845881000001</v>
       </c>
       <c r="AK23" s="1">
         <v>10.376346</v>
       </c>
       <c r="AL23" s="1">
-        <v>1388.500000</v>
+        <v>1388.5</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.976000</v>
+        <v>-208.976</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>37365.459771</v>
+        <v>37365.459771000002</v>
       </c>
       <c r="AP23" s="1">
         <v>10.379294</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1410.530000</v>
+        <v>1410.53</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.977000</v>
+        <v>-252.977</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>37375.936302</v>
+        <v>37375.936302000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.382205</v>
+        <v>10.382205000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1435.220000</v>
+        <v>1435.22</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.103000</v>
+        <v>-313.10300000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>37386.583393</v>
+        <v>37386.583393000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.385162</v>
+        <v>10.385161999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1454.530000</v>
+        <v>1454.53</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.339000</v>
+        <v>-365.339</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>37397.329217</v>
+        <v>37397.329216999999</v>
       </c>
       <c r="BE23" s="1">
         <v>10.388147</v>
       </c>
       <c r="BF23" s="1">
-        <v>1539.350000</v>
+        <v>1539.35</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.617000</v>
+        <v>-614.61699999999996</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>37408.008084</v>
+        <v>37408.008084000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.391113</v>
+        <v>10.391113000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1692.710000</v>
+        <v>1692.71</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1062.380000</v>
+        <v>-1062.3800000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>37418.253942</v>
+        <v>37418.253942000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.393959</v>
+        <v>10.393959000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1985.140000</v>
+        <v>1985.14</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1840.010000</v>
+        <v>-1840.01</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>37429.383176</v>
+        <v>37429.383176000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>10.397051</v>
+        <v>10.397050999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2373.050000</v>
+        <v>2373.0500000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2740.570000</v>
+        <v>-2740.57</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>37440.239144</v>
+        <v>37440.239143999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.400066</v>
+        <v>10.400066000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.520000</v>
+        <v>2852.52</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3725.030000</v>
+        <v>-3725.03</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>37453.290344</v>
+        <v>37453.290344000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.403692</v>
+        <v>10.403691999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4270.090000</v>
+        <v>4270.09</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6121.350000</v>
+        <v>-6121.35</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>37281.070477</v>
+        <v>37281.070477000001</v>
       </c>
       <c r="B24" s="1">
         <v>10.355853</v>
       </c>
       <c r="C24" s="1">
-        <v>1252.840000</v>
+        <v>1252.8399999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-281.583000</v>
+        <v>-281.58300000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>37291.858931</v>
+        <v>37291.858931000002</v>
       </c>
       <c r="G24" s="1">
-        <v>10.358850</v>
+        <v>10.35885</v>
       </c>
       <c r="H24" s="1">
-        <v>1274.230000</v>
+        <v>1274.23</v>
       </c>
       <c r="I24" s="1">
-        <v>-245.587000</v>
+        <v>-245.58699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>37302.296735</v>
+        <v>37302.296735000004</v>
       </c>
       <c r="L24" s="1">
         <v>10.361749</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.600000</v>
+        <v>1307.5999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-193.929000</v>
+        <v>-193.929</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>37312.851138</v>
+        <v>37312.851137999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>10.364681</v>
+        <v>10.364680999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-179.099000</v>
+        <v>-179.09899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>37323.313221</v>
+        <v>37323.313220999997</v>
       </c>
       <c r="V24" s="1">
         <v>10.367587</v>
       </c>
       <c r="W24" s="1">
-        <v>1334.340000</v>
+        <v>1334.34</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.325000</v>
+        <v>-168.32499999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>37333.874566</v>
+        <v>37333.874565999999</v>
       </c>
       <c r="AA24" s="1">
         <v>10.370521</v>
       </c>
       <c r="AB24" s="1">
-        <v>1353.310000</v>
+        <v>1353.31</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.344000</v>
+        <v>-168.34399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>37344.637721</v>
+        <v>37344.637720999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.373510</v>
+        <v>10.37351</v>
       </c>
       <c r="AG24" s="1">
-        <v>1367.140000</v>
+        <v>1367.14</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.629000</v>
+        <v>-178.62899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>37355.241690</v>
+        <v>37355.241690000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.376456</v>
+        <v>10.376455999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1388.530000</v>
+        <v>1388.53</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.967000</v>
+        <v>-208.96700000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>37365.872445</v>
+        <v>37365.872445000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>10.379409</v>
+        <v>10.379409000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1410.500000</v>
+        <v>1410.5</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.003000</v>
+        <v>-253.00299999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>37376.302023</v>
+        <v>37376.302022999997</v>
       </c>
       <c r="AU24" s="1">
         <v>10.382306</v>
       </c>
       <c r="AV24" s="1">
-        <v>1435.210000</v>
+        <v>1435.21</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.088000</v>
+        <v>-313.08800000000002</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>37386.961343</v>
+        <v>37386.961343000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.385267</v>
+        <v>10.385267000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.344000</v>
+        <v>-365.34399999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>37397.690833</v>
+        <v>37397.690833000001</v>
       </c>
       <c r="BE24" s="1">
         <v>10.388247</v>
       </c>
       <c r="BF24" s="1">
-        <v>1539.380000</v>
+        <v>1539.38</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.617000</v>
+        <v>-614.61699999999996</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>37408.429684</v>
+        <v>37408.429684000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.391230</v>
+        <v>10.39123</v>
       </c>
       <c r="BK24" s="1">
-        <v>1692.620000</v>
+        <v>1692.62</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1062.440000</v>
+        <v>-1062.44</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>37418.684469</v>
@@ -6330,225 +6746,225 @@
         <v>10.394079</v>
       </c>
       <c r="BP24" s="1">
-        <v>1985.190000</v>
+        <v>1985.19</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1840.160000</v>
+        <v>-1840.16</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>37429.800839</v>
+        <v>37429.800839000003</v>
       </c>
       <c r="BT24" s="1">
         <v>10.397167</v>
       </c>
       <c r="BU24" s="1">
-        <v>2372.990000</v>
+        <v>2372.9899999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2740.890000</v>
+        <v>-2740.89</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>37440.640415</v>
+        <v>37440.640415000002</v>
       </c>
       <c r="BY24" s="1">
         <v>10.400178</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2851.980000</v>
+        <v>2851.98</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3725.140000</v>
+        <v>-3725.14</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>37453.840932</v>
+        <v>37453.840931999999</v>
       </c>
       <c r="CD24" s="1">
         <v>10.403845</v>
       </c>
       <c r="CE24" s="1">
-        <v>4259.030000</v>
+        <v>4259.03</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6108.370000</v>
+        <v>-6108.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>37281.753466</v>
+        <v>37281.753466000002</v>
       </c>
       <c r="B25" s="1">
         <v>10.356043</v>
       </c>
       <c r="C25" s="1">
-        <v>1252.610000</v>
+        <v>1252.6099999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-280.891000</v>
+        <v>-280.89100000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>37292.201196</v>
+        <v>37292.201196000002</v>
       </c>
       <c r="G25" s="1">
         <v>10.358945</v>
       </c>
       <c r="H25" s="1">
-        <v>1274.370000</v>
+        <v>1274.3699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-245.047000</v>
+        <v>-245.047</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>37302.641953</v>
+        <v>37302.641952999998</v>
       </c>
       <c r="L25" s="1">
-        <v>10.361845</v>
+        <v>10.361845000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1307.200000</v>
+        <v>1307.2</v>
       </c>
       <c r="N25" s="1">
-        <v>-193.851000</v>
+        <v>-193.851</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>37313.202274</v>
+        <v>37313.202274000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.364778</v>
+        <v>10.364777999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1320.030000</v>
+        <v>1320.03</v>
       </c>
       <c r="S25" s="1">
-        <v>-179.107000</v>
+        <v>-179.107</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>37323.965458</v>
+        <v>37323.965457999999</v>
       </c>
       <c r="V25" s="1">
         <v>10.367768</v>
       </c>
       <c r="W25" s="1">
-        <v>1334.290000</v>
+        <v>1334.29</v>
       </c>
       <c r="X25" s="1">
-        <v>-168.586000</v>
+        <v>-168.58600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>37334.529781</v>
+        <v>37334.529780999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.370703</v>
+        <v>10.370703000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1353.270000</v>
+        <v>1353.27</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.205000</v>
+        <v>-168.20500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>37345.014678</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.373615</v>
+        <v>10.373614999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1366.990000</v>
+        <v>1366.99</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.677000</v>
+        <v>-178.67699999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>37355.587402</v>
+        <v>37355.587401999997</v>
       </c>
       <c r="AK25" s="1">
         <v>10.376552</v>
       </c>
       <c r="AL25" s="1">
-        <v>1388.500000</v>
+        <v>1388.5</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.944000</v>
+        <v>-208.94399999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>37366.256843</v>
+        <v>37366.256843000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.379516</v>
+        <v>10.379516000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1410.510000</v>
+        <v>1410.51</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.923000</v>
+        <v>-252.923</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>37376.664428</v>
+        <v>37376.664427999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.382407</v>
+        <v>10.382407000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1435.200000</v>
+        <v>1435.2</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.074000</v>
+        <v>-313.07400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>37387.336320</v>
+        <v>37387.336320000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.385371</v>
+        <v>10.385370999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.358000</v>
+        <v>-365.358</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>37398.107936</v>
@@ -6557,165 +6973,165 @@
         <v>10.388363</v>
       </c>
       <c r="BF25" s="1">
-        <v>1539.400000</v>
+        <v>1539.4</v>
       </c>
       <c r="BG25" s="1">
-        <v>-614.601000</v>
+        <v>-614.601</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>37408.755554</v>
+        <v>37408.755554000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>10.391321</v>
       </c>
       <c r="BK25" s="1">
-        <v>1692.700000</v>
+        <v>1692.7</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1062.390000</v>
+        <v>-1062.3900000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>37419.070884</v>
+        <v>37419.070884000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.394186</v>
+        <v>10.394185999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1985.050000</v>
+        <v>1985.05</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1840.180000</v>
+        <v>-1840.18</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>37430.232353</v>
+        <v>37430.232352999999</v>
       </c>
       <c r="BT25" s="1">
         <v>10.397287</v>
       </c>
       <c r="BU25" s="1">
-        <v>2372.730000</v>
+        <v>2372.73</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2741.210000</v>
+        <v>-2741.21</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>37441.068429</v>
+        <v>37441.068428999999</v>
       </c>
       <c r="BY25" s="1">
         <v>10.400297</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.270000</v>
+        <v>2852.27</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3725.410000</v>
+        <v>-3725.41</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>37454.371157</v>
+        <v>37454.371157000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.403992</v>
+        <v>10.403992000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4271.220000</v>
+        <v>4271.22</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6120.660000</v>
+        <v>-6120.66</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>37282.096666</v>
+        <v>37282.096665999998</v>
       </c>
       <c r="B26" s="1">
         <v>10.356138</v>
       </c>
       <c r="C26" s="1">
-        <v>1252.450000</v>
+        <v>1252.45</v>
       </c>
       <c r="D26" s="1">
-        <v>-281.270000</v>
+        <v>-281.27</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>37292.549852</v>
+        <v>37292.549851999996</v>
       </c>
       <c r="G26" s="1">
-        <v>10.359042</v>
+        <v>10.359042000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1274.040000</v>
+        <v>1274.04</v>
       </c>
       <c r="I26" s="1">
-        <v>-245.735000</v>
+        <v>-245.73500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>37303.306623</v>
+        <v>37303.306622999997</v>
       </c>
       <c r="L26" s="1">
-        <v>10.362030</v>
+        <v>10.362030000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1307.330000</v>
+        <v>1307.33</v>
       </c>
       <c r="N26" s="1">
-        <v>-194.274000</v>
+        <v>-194.274</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>37313.865457</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.364963</v>
+        <v>10.364962999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.890000</v>
+        <v>1319.89</v>
       </c>
       <c r="S26" s="1">
-        <v>-179.188000</v>
+        <v>-179.18799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>37324.344898</v>
+        <v>37324.344898000003</v>
       </c>
       <c r="V26" s="1">
         <v>10.367874</v>
       </c>
       <c r="W26" s="1">
-        <v>1334.260000</v>
+        <v>1334.26</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.339000</v>
+        <v>-168.339</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>37334.921124</v>
@@ -6724,43 +7140,43 @@
         <v>10.370811</v>
       </c>
       <c r="AB26" s="1">
-        <v>1353.170000</v>
+        <v>1353.17</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.451000</v>
+        <v>-168.45099999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>37345.357414</v>
+        <v>37345.357413999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.373710</v>
+        <v>10.373710000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1367.070000</v>
+        <v>1367.07</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.675000</v>
+        <v>-178.67500000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>37355.940056</v>
+        <v>37355.940055999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>10.376650</v>
+        <v>10.37665</v>
       </c>
       <c r="AL26" s="1">
-        <v>1388.500000</v>
+        <v>1388.5</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.976000</v>
+        <v>-208.976</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>37366.616939</v>
@@ -6769,43 +7185,43 @@
         <v>10.379616</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1410.520000</v>
+        <v>1410.52</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.968000</v>
+        <v>-252.96799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>37377.089964</v>
+        <v>37377.089963999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.382525</v>
+        <v>10.382524999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1435.200000</v>
+        <v>1435.2</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.079000</v>
+        <v>-313.07900000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>37387.751967</v>
+        <v>37387.751966999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.385487</v>
+        <v>10.385486999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1454.520000</v>
+        <v>1454.52</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.370000</v>
+        <v>-365.37</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>37398.412976</v>
@@ -6814,90 +7230,91 @@
         <v>10.388448</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.599000</v>
+        <v>-614.59900000000005</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>37409.141477</v>
+        <v>37409.141476999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>10.391428</v>
+        <v>10.391427999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1692.740000</v>
+        <v>1692.74</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1062.330000</v>
+        <v>-1062.33</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>37419.492454</v>
+        <v>37419.492453999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.394303</v>
+        <v>10.394303000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1984.980000</v>
+        <v>1984.98</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1840.040000</v>
+        <v>-1840.04</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>37430.658391</v>
+        <v>37430.658390999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>10.397405</v>
+        <v>10.397404999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2372.500000</v>
+        <v>2372.5</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2741.540000</v>
+        <v>-2741.54</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>37441.486087</v>
+        <v>37441.486086999997</v>
       </c>
       <c r="BY26" s="1">
         <v>10.400413</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.160000</v>
+        <v>2852.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3725.260000</v>
+        <v>-3725.26</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>37454.888949</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.404136</v>
+        <v>10.404135999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4265.020000</v>
+        <v>4265.0200000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6120.910000</v>
+        <v>-6120.91</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>